--- a/technicalFactorsExcel/sp500Factors.xlsx
+++ b/technicalFactorsExcel/sp500Factors.xlsx
@@ -483,7 +483,7 @@
         <v>3.28</v>
       </c>
       <c r="D2" t="n">
-        <v>38589.48</v>
+        <v>38644.98</v>
       </c>
       <c r="E2" t="n">
         <v>1.48</v>
@@ -505,10 +505,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>77.19</v>
+        <v>77.20999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>9778.110000000001</v>
+        <v>9768.299999999999</v>
       </c>
       <c r="E3" t="n">
         <v>3.25</v>
@@ -533,10 +533,10 @@
         <v>-1.33</v>
       </c>
       <c r="D4" t="n">
-        <v>2906617.37</v>
+        <v>2910193.82</v>
       </c>
       <c r="E4" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="F4" t="n">
         <v>7.47</v>
@@ -558,10 +558,10 @@
         <v>15.22</v>
       </c>
       <c r="D5" t="n">
-        <v>306104.11</v>
+        <v>306174.51</v>
       </c>
       <c r="E5" t="n">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F5" t="n">
         <v>12.21</v>
@@ -580,13 +580,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>-7.93</v>
+        <v>-7.99</v>
       </c>
       <c r="D6" t="n">
-        <v>99072.13</v>
+        <v>98432</v>
       </c>
       <c r="E6" t="n">
-        <v>2.23</v>
+        <v>2.16</v>
       </c>
       <c r="F6" t="n">
         <v>13.91</v>
@@ -602,16 +602,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="C7" t="n">
-        <v>3.74</v>
+        <v>3.73</v>
       </c>
       <c r="D7" t="n">
-        <v>194681.6</v>
+        <v>195376.03</v>
       </c>
       <c r="E7" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="F7" t="n">
         <v>18.94</v>
@@ -630,13 +630,13 @@
         <v>0.13</v>
       </c>
       <c r="C8" t="n">
-        <v>6.16</v>
+        <v>6.17</v>
       </c>
       <c r="D8" t="n">
-        <v>30792.42</v>
+        <v>30775.75</v>
       </c>
       <c r="E8" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="F8" t="n">
         <v>-5.09</v>
@@ -683,10 +683,10 @@
         <v>-1.37</v>
       </c>
       <c r="D10" t="n">
-        <v>278859.21</v>
+        <v>278387.21</v>
       </c>
       <c r="E10" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="F10" t="n">
         <v>10.39</v>
@@ -702,16 +702,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="C11" t="n">
-        <v>6.26</v>
+        <v>6.25</v>
       </c>
       <c r="D11" t="n">
-        <v>96071.3</v>
+        <v>96299.58</v>
       </c>
       <c r="E11" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="F11" t="n">
         <v>14.94</v>
@@ -727,16 +727,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.07</v>
+        <v>3.06</v>
       </c>
       <c r="C12" t="n">
-        <v>23.98</v>
+        <v>23.94</v>
       </c>
       <c r="D12" t="n">
-        <v>29327.41</v>
+        <v>29398.51</v>
       </c>
       <c r="E12" t="n">
-        <v>5.81</v>
+        <v>5.82</v>
       </c>
       <c r="F12" t="n">
         <v>-3.92</v>
@@ -752,13 +752,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="C13" t="n">
         <v>1.38</v>
       </c>
       <c r="D13" t="n">
-        <v>103288.74</v>
+        <v>103053.85</v>
       </c>
       <c r="E13" t="n">
         <v>0.82</v>
@@ -783,7 +783,7 @@
         <v>0.87</v>
       </c>
       <c r="D14" t="n">
-        <v>56353.65</v>
+        <v>56338.6</v>
       </c>
       <c r="E14" t="n">
         <v>1.24</v>
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.43</v>
+        <v>3.42</v>
       </c>
       <c r="C15" t="n">
-        <v>45.48</v>
+        <v>45.44</v>
       </c>
       <c r="D15" t="n">
-        <v>17794.19</v>
+        <v>17827.69</v>
       </c>
       <c r="E15" t="n">
         <v>1.09</v>
@@ -827,16 +827,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.14</v>
+        <v>4.13</v>
       </c>
       <c r="C16" t="n">
-        <v>50.67</v>
+        <v>50.6</v>
       </c>
       <c r="D16" t="n">
-        <v>39757.82</v>
+        <v>39870.87</v>
       </c>
       <c r="E16" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="F16" t="n">
         <v>11.1</v>
@@ -852,16 +852,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.75</v>
+        <v>3.74</v>
       </c>
       <c r="C17" t="n">
-        <v>66.12</v>
+        <v>66.06999999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>11254.95</v>
+        <v>11281.7</v>
       </c>
       <c r="E17" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="F17" t="n">
         <v>31.71</v>
@@ -883,7 +883,7 @@
         <v>6.13</v>
       </c>
       <c r="D18" t="n">
-        <v>46829.39</v>
+        <v>46811.5</v>
       </c>
       <c r="E18" t="n">
         <v>2.39</v>
@@ -902,13 +902,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="C19" t="n">
-        <v>33.88</v>
+        <v>33.89</v>
       </c>
       <c r="D19" t="n">
-        <v>51199.81</v>
+        <v>51181.45</v>
       </c>
       <c r="E19" t="n">
         <v>1.1</v>
@@ -930,13 +930,13 @@
         <v>1.65</v>
       </c>
       <c r="C20" t="n">
-        <v>6.27</v>
+        <v>6.29</v>
       </c>
       <c r="D20" t="n">
-        <v>9106.639999999999</v>
+        <v>9080.49</v>
       </c>
       <c r="E20" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="F20" t="n">
         <v>13.22</v>
@@ -958,10 +958,10 @@
         <v>12.15</v>
       </c>
       <c r="D21" t="n">
-        <v>51000.3</v>
+        <v>51025.22</v>
       </c>
       <c r="E21" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
         <v>3.12</v>
@@ -980,13 +980,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>8.06</v>
+        <v>8.02</v>
       </c>
       <c r="D22" t="n">
-        <v>19949.96</v>
+        <v>20054.81</v>
       </c>
       <c r="E22" t="n">
-        <v>0.74</v>
+        <v>0.71</v>
       </c>
       <c r="F22" t="n">
         <v>14.13</v>
@@ -1002,22 +1002,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="C23" t="n">
-        <v>13.8</v>
+        <v>13.89</v>
       </c>
       <c r="D23" t="n">
-        <v>14174.99</v>
+        <v>14068.36</v>
       </c>
       <c r="E23" t="n">
-        <v>2.99</v>
+        <v>2.93</v>
       </c>
       <c r="F23" t="n">
         <v>-7.51</v>
       </c>
       <c r="G23" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="24">
@@ -1033,7 +1033,7 @@
         <v>-3.97</v>
       </c>
       <c r="D24" t="n">
-        <v>23123.37</v>
+        <v>23163.58</v>
       </c>
       <c r="E24" t="n">
         <v>2.18</v>
@@ -1055,13 +1055,13 @@
         <v>2.46</v>
       </c>
       <c r="C25" t="n">
-        <v>15.28</v>
+        <v>15.31</v>
       </c>
       <c r="D25" t="n">
-        <v>41981.38</v>
+        <v>41890.64</v>
       </c>
       <c r="E25" t="n">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F25" t="n">
         <v>23.97</v>
@@ -1080,10 +1080,10 @@
         <v>1.23</v>
       </c>
       <c r="C26" t="n">
-        <v>13.98</v>
+        <v>13.99</v>
       </c>
       <c r="D26" t="n">
-        <v>11734.93</v>
+        <v>11733.62</v>
       </c>
       <c r="E26" t="n">
         <v>1.46</v>
@@ -1108,10 +1108,10 @@
         <v>-0.63</v>
       </c>
       <c r="D27" t="n">
-        <v>154488.19</v>
+        <v>154554.81</v>
       </c>
       <c r="E27" t="n">
-        <v>2.5</v>
+        <v>2.49</v>
       </c>
       <c r="F27" t="n">
         <v>12.68</v>
@@ -1130,10 +1130,10 @@
         <v>5.44</v>
       </c>
       <c r="C28" t="n">
-        <v>33.29</v>
+        <v>33.28</v>
       </c>
       <c r="D28" t="n">
-        <v>13285.4</v>
+        <v>13292.64</v>
       </c>
       <c r="E28" t="n">
         <v>1.19</v>
@@ -1158,10 +1158,10 @@
         <v>-1</v>
       </c>
       <c r="D29" t="n">
-        <v>279114.22</v>
+        <v>277806.57</v>
       </c>
       <c r="E29" t="n">
-        <v>3.4</v>
+        <v>3.41</v>
       </c>
       <c r="F29" t="n">
         <v>46.55</v>
@@ -1180,13 +1180,13 @@
         <v>0.52</v>
       </c>
       <c r="C30" t="n">
-        <v>5.43</v>
+        <v>5.41</v>
       </c>
       <c r="D30" t="n">
-        <v>38612.85</v>
+        <v>38747.43</v>
       </c>
       <c r="E30" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="F30" t="n">
         <v>16.03</v>
@@ -1205,13 +1205,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>16.2</v>
+        <v>16.17</v>
       </c>
       <c r="D31" t="n">
-        <v>156921.23</v>
+        <v>157225.62</v>
       </c>
       <c r="E31" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="F31" t="n">
         <v>12.25</v>
@@ -1230,10 +1230,10 @@
         <v>1.34</v>
       </c>
       <c r="C32" t="n">
-        <v>-11.02</v>
+        <v>-11.05</v>
       </c>
       <c r="D32" t="n">
-        <v>39922.18</v>
+        <v>39836.51</v>
       </c>
       <c r="E32" t="n">
         <v>0.8</v>
@@ -1252,16 +1252,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2.94</v>
+        <v>2.95</v>
       </c>
       <c r="C33" t="n">
-        <v>33.48</v>
+        <v>33.52</v>
       </c>
       <c r="D33" t="n">
-        <v>89433.77</v>
+        <v>89301.53</v>
       </c>
       <c r="E33" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="F33" t="n">
         <v>31.48</v>
@@ -1283,10 +1283,10 @@
         <v>2.66</v>
       </c>
       <c r="D34" t="n">
-        <v>1784111.86</v>
+        <v>1789406.18</v>
       </c>
       <c r="E34" t="n">
-        <v>2.18</v>
+        <v>2.17</v>
       </c>
       <c r="F34" t="n">
         <v>22.17</v>
@@ -1305,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>-3.54</v>
+        <v>-3.55</v>
       </c>
       <c r="D35" t="n">
-        <v>86607.42</v>
+        <v>86254.5</v>
       </c>
       <c r="E35" t="n">
-        <v>2.18</v>
+        <v>2.19</v>
       </c>
       <c r="F35" t="n">
         <v>35.12</v>
@@ -1330,13 +1330,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="D36" t="n">
-        <v>29430.81</v>
+        <v>29378.64</v>
       </c>
       <c r="E36" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="F36" t="n">
         <v>25.56</v>
@@ -1358,10 +1358,10 @@
         <v>14.2</v>
       </c>
       <c r="D37" t="n">
-        <v>63636</v>
+        <v>63680.16</v>
       </c>
       <c r="E37" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="F37" t="n">
         <v>-4.22</v>
@@ -1383,7 +1383,7 @@
         <v>-1.74</v>
       </c>
       <c r="D38" t="n">
-        <v>12165.59</v>
+        <v>12144.66</v>
       </c>
       <c r="E38" t="n">
         <v>1.47</v>
@@ -1402,16 +1402,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2.17</v>
+        <v>2.18</v>
       </c>
       <c r="C39" t="n">
-        <v>36.64</v>
+        <v>36.72</v>
       </c>
       <c r="D39" t="n">
-        <v>9527.48</v>
+        <v>9496.32</v>
       </c>
       <c r="E39" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="F39" t="n">
         <v>-21</v>
@@ -1427,13 +1427,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3.02</v>
+        <v>3.03</v>
       </c>
       <c r="C40" t="n">
-        <v>15.51</v>
+        <v>15.52</v>
       </c>
       <c r="D40" t="n">
-        <v>49492.79</v>
+        <v>49435.46</v>
       </c>
       <c r="E40" t="n">
         <v>3.68</v>
@@ -1458,7 +1458,7 @@
         <v>4.09</v>
       </c>
       <c r="D41" t="n">
-        <v>62807.71</v>
+        <v>62837.51</v>
       </c>
       <c r="E41" t="n">
         <v>0.99</v>
@@ -1477,13 +1477,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="C42" t="n">
-        <v>17.48</v>
+        <v>17.5</v>
       </c>
       <c r="D42" t="n">
-        <v>23720.82</v>
+        <v>23695.36</v>
       </c>
       <c r="E42" t="n">
         <v>2.18</v>
@@ -1502,16 +1502,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4.18</v>
+        <v>4.21</v>
       </c>
       <c r="C43" t="n">
-        <v>35.34</v>
+        <v>35.5</v>
       </c>
       <c r="D43" t="n">
-        <v>20274.66</v>
+        <v>20131.24</v>
       </c>
       <c r="E43" t="n">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="F43" t="n">
         <v>33.78</v>
@@ -1530,10 +1530,10 @@
         <v>2.54</v>
       </c>
       <c r="C44" t="n">
-        <v>29.72</v>
+        <v>29.7</v>
       </c>
       <c r="D44" t="n">
-        <v>16917.78</v>
+        <v>16931.15</v>
       </c>
       <c r="E44" t="n">
         <v>1.14</v>
@@ -1552,13 +1552,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3.58</v>
+        <v>3.59</v>
       </c>
       <c r="C45" t="n">
-        <v>23.39</v>
+        <v>23.45</v>
       </c>
       <c r="D45" t="n">
-        <v>24838.83</v>
+        <v>24763.56</v>
       </c>
       <c r="E45" t="n">
         <v>1.16</v>
@@ -1580,10 +1580,10 @@
         <v>1.46</v>
       </c>
       <c r="C46" t="n">
-        <v>4.63</v>
+        <v>4.64</v>
       </c>
       <c r="D46" t="n">
-        <v>523912.86</v>
+        <v>523710</v>
       </c>
       <c r="E46" t="n">
         <v>2.12</v>
@@ -1605,13 +1605,13 @@
         <v>1.54</v>
       </c>
       <c r="C47" t="n">
-        <v>15.35</v>
+        <v>15.39</v>
       </c>
       <c r="D47" t="n">
-        <v>16706.22</v>
+        <v>16653.31</v>
       </c>
       <c r="E47" t="n">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F47" t="n">
         <v>15.09</v>
@@ -1630,13 +1630,13 @@
         <v>2.08</v>
       </c>
       <c r="C48" t="n">
-        <v>35.53</v>
+        <v>35.45</v>
       </c>
       <c r="D48" t="n">
-        <v>22399.46</v>
+        <v>22486.75</v>
       </c>
       <c r="E48" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="F48" t="n">
         <v>14.47</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>-1.39</v>
+        <v>-1.38</v>
       </c>
       <c r="D49" t="n">
-        <v>18824.53</v>
+        <v>18908.9</v>
       </c>
       <c r="E49" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="F49" t="n">
         <v>19.33</v>
@@ -1680,13 +1680,13 @@
         <v>1.02</v>
       </c>
       <c r="C50" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="D50" t="n">
-        <v>153851.51</v>
+        <v>153489.28</v>
       </c>
       <c r="E50" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="F50" t="n">
         <v>25.9</v>
@@ -1705,13 +1705,13 @@
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>18.1</v>
+        <v>18.04</v>
       </c>
       <c r="D51" t="n">
-        <v>48135.51</v>
+        <v>48332.47</v>
       </c>
       <c r="E51" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="F51" t="n">
         <v>5.6</v>
@@ -1730,10 +1730,10 @@
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>22.2</v>
+        <v>22.17</v>
       </c>
       <c r="D52" t="n">
-        <v>127333.84</v>
+        <v>127595.87</v>
       </c>
       <c r="E52" t="n">
         <v>2.94</v>
@@ -1752,16 +1752,16 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3.22</v>
+        <v>3.23</v>
       </c>
       <c r="C53" t="n">
-        <v>25.61</v>
+        <v>25.67</v>
       </c>
       <c r="D53" t="n">
-        <v>266353.27</v>
+        <v>265524.25</v>
       </c>
       <c r="E53" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="F53" t="n">
         <v>28.28</v>
@@ -1780,13 +1780,13 @@
         <v>1.32</v>
       </c>
       <c r="C54" t="n">
-        <v>29.24</v>
+        <v>29.21</v>
       </c>
       <c r="D54" t="n">
-        <v>19053.74</v>
+        <v>19083.69</v>
       </c>
       <c r="E54" t="n">
-        <v>2.12</v>
+        <v>2.13</v>
       </c>
       <c r="F54" t="n">
         <v>31.62</v>
@@ -1802,16 +1802,16 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>2.83</v>
+        <v>2.82</v>
       </c>
       <c r="C55" t="n">
-        <v>43.37</v>
+        <v>43.24</v>
       </c>
       <c r="D55" t="n">
-        <v>20235.3</v>
+        <v>20341.23</v>
       </c>
       <c r="E55" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="F55" t="n">
         <v>21.77</v>
@@ -1827,13 +1827,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="C56" t="n">
-        <v>31.97</v>
+        <v>32</v>
       </c>
       <c r="D56" t="n">
-        <v>10259.2</v>
+        <v>10245.46</v>
       </c>
       <c r="E56" t="n">
         <v>1.37</v>
@@ -1852,16 +1852,16 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>4.74</v>
+        <v>4.76</v>
       </c>
       <c r="C57" t="n">
-        <v>11.29</v>
+        <v>11.35</v>
       </c>
       <c r="D57" t="n">
-        <v>16661.75</v>
+        <v>16559.24</v>
       </c>
       <c r="E57" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="F57" t="n">
         <v>8.300000000000001</v>
@@ -1877,13 +1877,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="C58" t="n">
-        <v>17.46</v>
+        <v>17.5</v>
       </c>
       <c r="D58" t="n">
-        <v>70840.67</v>
+        <v>70652.32000000001</v>
       </c>
       <c r="E58" t="n">
         <v>0.98</v>
@@ -1902,16 +1902,16 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>4.33</v>
+        <v>4.35</v>
       </c>
       <c r="C59" t="n">
-        <v>36.49</v>
+        <v>36.64</v>
       </c>
       <c r="D59" t="n">
-        <v>14040</v>
+        <v>13945.77</v>
       </c>
       <c r="E59" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="F59" t="n">
         <v>27.7</v>
@@ -1927,16 +1927,16 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="C60" t="n">
-        <v>8.65</v>
+        <v>8.66</v>
       </c>
       <c r="D60" t="n">
-        <v>27711.71</v>
+        <v>27680.56</v>
       </c>
       <c r="E60" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="F60" t="n">
         <v>1.07</v>
@@ -1955,13 +1955,13 @@
         <v>2.82</v>
       </c>
       <c r="C61" t="n">
-        <v>24.49</v>
+        <v>24.45</v>
       </c>
       <c r="D61" t="n">
-        <v>13562.92</v>
+        <v>13593.5</v>
       </c>
       <c r="E61" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="F61" t="n">
         <v>-6.46</v>
@@ -1980,13 +1980,13 @@
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>3.07</v>
+        <v>3.06</v>
       </c>
       <c r="D62" t="n">
-        <v>35138.79</v>
+        <v>35267.03</v>
       </c>
       <c r="E62" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="F62" t="n">
         <v>-2.08</v>
@@ -2005,10 +2005,10 @@
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>-4.34</v>
+        <v>-4.35</v>
       </c>
       <c r="D63" t="n">
-        <v>9667.440000000001</v>
+        <v>9663.299999999999</v>
       </c>
       <c r="E63" t="n">
         <v>1.85</v>
@@ -2027,16 +2027,16 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>3.25</v>
+        <v>3.26</v>
       </c>
       <c r="C64" t="n">
-        <v>195.4</v>
+        <v>195.13</v>
       </c>
       <c r="D64" t="n">
-        <v>42303.05</v>
+        <v>42242.31</v>
       </c>
       <c r="E64" t="n">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="F64" t="n">
         <v>32.2</v>
@@ -2058,7 +2058,7 @@
         <v>-1.43</v>
       </c>
       <c r="D65" t="n">
-        <v>143727.46</v>
+        <v>143509.36</v>
       </c>
       <c r="E65" t="n">
         <v>1.51</v>
@@ -2080,10 +2080,10 @@
         <v>2.67</v>
       </c>
       <c r="C66" t="n">
-        <v>10.29</v>
+        <v>10.28</v>
       </c>
       <c r="D66" t="n">
-        <v>29421.04</v>
+        <v>29441</v>
       </c>
       <c r="E66" t="n">
         <v>1.77</v>
@@ -2105,13 +2105,13 @@
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>11.63</v>
+        <v>11.6</v>
       </c>
       <c r="D67" t="n">
-        <v>25918.96</v>
+        <v>26003.67</v>
       </c>
       <c r="E67" t="n">
-        <v>2.36</v>
+        <v>2.37</v>
       </c>
       <c r="F67" t="n">
         <v>50.92</v>
@@ -2130,13 +2130,13 @@
         <v>2.49</v>
       </c>
       <c r="C68" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="D68" t="n">
-        <v>120239.49</v>
+        <v>120085.24</v>
       </c>
       <c r="E68" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="F68" t="n">
         <v>30.07</v>
@@ -2155,10 +2155,10 @@
         <v>4.49</v>
       </c>
       <c r="C69" t="n">
-        <v>23.37</v>
+        <v>23.36</v>
       </c>
       <c r="D69" t="n">
-        <v>103179.37</v>
+        <v>103236.43</v>
       </c>
       <c r="E69" t="n">
         <v>1.1</v>
@@ -2180,13 +2180,13 @@
         <v>1.42</v>
       </c>
       <c r="C70" t="n">
-        <v>12.7</v>
+        <v>12.72</v>
       </c>
       <c r="D70" t="n">
-        <v>23368.45</v>
+        <v>23338.92</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="F70" t="n">
         <v>17.34</v>
@@ -2217,7 +2217,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="F71" t="n">
         <v>7.95</v>
@@ -2236,10 +2236,10 @@
         <v>0.59</v>
       </c>
       <c r="C72" t="n">
-        <v>12.42</v>
+        <v>12.41</v>
       </c>
       <c r="D72" t="n">
-        <v>23007.52</v>
+        <v>23035.97</v>
       </c>
       <c r="E72" t="n">
         <v>1.31</v>
@@ -2261,13 +2261,13 @@
         <v>0.06</v>
       </c>
       <c r="C73" t="n">
-        <v>8.15</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>94871.96000000001</v>
+        <v>95188.17</v>
       </c>
       <c r="E73" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="F73" t="n">
         <v>19.57</v>
@@ -2289,7 +2289,7 @@
         <v>28.47</v>
       </c>
       <c r="D74" t="n">
-        <v>7565.66</v>
+        <v>7566.83</v>
       </c>
       <c r="E74" t="n">
         <v>1.97</v>
@@ -2308,16 +2308,16 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>4.13</v>
+        <v>4.12</v>
       </c>
       <c r="C75" t="n">
-        <v>5.58</v>
+        <v>5.57</v>
       </c>
       <c r="D75" t="n">
-        <v>157949.03</v>
+        <v>158301.83</v>
       </c>
       <c r="E75" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="F75" t="n">
         <v>28.68</v>
@@ -2333,16 +2333,16 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>6.64</v>
+        <v>6.67</v>
       </c>
       <c r="C76" t="n">
-        <v>59.38</v>
+        <v>59.51</v>
       </c>
       <c r="D76" t="n">
-        <v>10322.79</v>
+        <v>10270.6</v>
       </c>
       <c r="E76" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="F76" t="n">
         <v>32.02</v>
@@ -2359,10 +2359,10 @@
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="n">
-        <v>67.8</v>
+        <v>67.88</v>
       </c>
       <c r="D77" t="n">
-        <v>103012.14</v>
+        <v>102634.18</v>
       </c>
       <c r="E77" t="n">
         <v>1.63</v>
@@ -2381,16 +2381,16 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>4.72</v>
+        <v>4.71</v>
       </c>
       <c r="C78" t="n">
-        <v>41.48</v>
+        <v>41.43</v>
       </c>
       <c r="D78" t="n">
-        <v>13223.07</v>
+        <v>13251.69</v>
       </c>
       <c r="E78" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="F78" t="n">
         <v>8.470000000000001</v>
@@ -2412,10 +2412,10 @@
         <v>4.18</v>
       </c>
       <c r="D79" t="n">
-        <v>25942.38</v>
+        <v>26001.09</v>
       </c>
       <c r="E79" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="F79" t="n">
         <v>15</v>
@@ -2434,10 +2434,10 @@
         <v>1.33</v>
       </c>
       <c r="C80" t="n">
-        <v>11.36</v>
+        <v>11.34</v>
       </c>
       <c r="D80" t="n">
-        <v>46661.94</v>
+        <v>46778.8</v>
       </c>
       <c r="E80" t="n">
         <v>1.7</v>
@@ -2456,16 +2456,16 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="C81" t="n">
         <v>2.11</v>
       </c>
       <c r="D81" t="n">
-        <v>165811.45</v>
+        <v>166113.5</v>
       </c>
       <c r="E81" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="F81" t="n">
         <v>17.42</v>
@@ -2487,7 +2487,7 @@
         <v>10.59</v>
       </c>
       <c r="D82" t="n">
-        <v>102821.6</v>
+        <v>102836.11</v>
       </c>
       <c r="E82" t="n">
         <v>0.85</v>
@@ -2506,13 +2506,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="C83" t="n">
-        <v>6.55</v>
+        <v>6.54</v>
       </c>
       <c r="D83" t="n">
-        <v>19463.23</v>
+        <v>19524.69</v>
       </c>
       <c r="E83" t="n">
         <v>1.05</v>
@@ -2534,13 +2534,13 @@
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>7.64</v>
+        <v>7.62</v>
       </c>
       <c r="D84" t="n">
-        <v>27400.35</v>
+        <v>27459.44</v>
       </c>
       <c r="E84" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="F84" t="n">
         <v>27.54</v>
@@ -2556,13 +2556,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>5.79</v>
+        <v>5.8</v>
       </c>
       <c r="C85" t="n">
-        <v>37.92</v>
+        <v>37.94</v>
       </c>
       <c r="D85" t="n">
-        <v>46997.86</v>
+        <v>46958.8</v>
       </c>
       <c r="E85" t="n">
         <v>1.88</v>
@@ -2584,10 +2584,10 @@
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>60.07</v>
+        <v>60.09</v>
       </c>
       <c r="D86" t="n">
-        <v>19592</v>
+        <v>19579.36</v>
       </c>
       <c r="E86" t="n">
         <v>2.29</v>
@@ -2612,10 +2612,10 @@
         <v>0.05</v>
       </c>
       <c r="D87" t="n">
-        <v>83933.46000000001</v>
+        <v>83596.7</v>
       </c>
       <c r="E87" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="F87" t="n">
         <v>11.91</v>
@@ -2634,13 +2634,13 @@
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>15.05</v>
+        <v>15.06</v>
       </c>
       <c r="D88" t="n">
-        <v>32818.1</v>
+        <v>32791</v>
       </c>
       <c r="E88" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="F88" t="n">
         <v>9.82</v>
@@ -2656,16 +2656,16 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="C89" t="n">
-        <v>45.19</v>
+        <v>45.29</v>
       </c>
       <c r="D89" t="n">
-        <v>16517.33</v>
+        <v>16450.07</v>
       </c>
       <c r="E89" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="F89" t="n">
         <v>30.3</v>
@@ -2684,13 +2684,13 @@
         <v>0.44</v>
       </c>
       <c r="C90" t="n">
-        <v>11.1</v>
+        <v>11.08</v>
       </c>
       <c r="D90" t="n">
-        <v>41974.19</v>
+        <v>42039.61</v>
       </c>
       <c r="E90" t="n">
-        <v>2.09</v>
+        <v>2.08</v>
       </c>
       <c r="F90" t="n">
         <v>0.71</v>
@@ -2712,7 +2712,7 @@
         <v>5.52</v>
       </c>
       <c r="D91" t="n">
-        <v>15450.79</v>
+        <v>15427.32</v>
       </c>
       <c r="E91" t="n">
         <v>1.07</v>
@@ -2731,16 +2731,16 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>5.9</v>
+        <v>5.93</v>
       </c>
       <c r="C92" t="n">
-        <v>11.37</v>
+        <v>11.42</v>
       </c>
       <c r="D92" t="n">
-        <v>15121.27</v>
+        <v>15032.65</v>
       </c>
       <c r="E92" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="F92" t="n">
         <v>34.18</v>
@@ -2759,10 +2759,10 @@
         <v>1.11</v>
       </c>
       <c r="C93" t="n">
-        <v>9.710000000000001</v>
+        <v>9.68</v>
       </c>
       <c r="D93" t="n">
-        <v>23967.65</v>
+        <v>24055.45</v>
       </c>
       <c r="E93" t="n">
         <v>1.22</v>
@@ -2784,13 +2784,13 @@
         <v>3.3</v>
       </c>
       <c r="C94" t="n">
-        <v>16.97</v>
+        <v>16.98</v>
       </c>
       <c r="D94" t="n">
-        <v>8843.9</v>
+        <v>8837.48</v>
       </c>
       <c r="E94" t="n">
-        <v>3.05</v>
+        <v>3.04</v>
       </c>
       <c r="F94" t="n">
         <v>3.18</v>
@@ -2809,10 +2809,10 @@
         <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>68.73999999999999</v>
+        <v>68.78</v>
       </c>
       <c r="D95" t="n">
-        <v>44144.59</v>
+        <v>44066.93</v>
       </c>
       <c r="E95" t="n">
         <v>4.34</v>
@@ -2834,10 +2834,10 @@
         <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>19.7</v>
+        <v>19.71</v>
       </c>
       <c r="D96" t="n">
-        <v>100800.16</v>
+        <v>100717.43</v>
       </c>
       <c r="E96" t="n">
         <v>1.56</v>
@@ -2856,16 +2856,16 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>2.43</v>
+        <v>2.44</v>
       </c>
       <c r="C97" t="n">
-        <v>-2.19</v>
+        <v>-2.2</v>
       </c>
       <c r="D97" t="n">
-        <v>17423.96</v>
+        <v>17364.26</v>
       </c>
       <c r="E97" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="F97" t="n">
         <v>9.34</v>
@@ -2881,13 +2881,13 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>2.55</v>
+        <v>2.54</v>
       </c>
       <c r="C98" t="n">
-        <v>9.73</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>68656.89999999999</v>
+        <v>68792.75999999999</v>
       </c>
       <c r="E98" t="n">
         <v>1.09</v>
@@ -2906,13 +2906,13 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>3.07</v>
+        <v>3.06</v>
       </c>
       <c r="C99" t="n">
-        <v>12</v>
+        <v>11.96</v>
       </c>
       <c r="D99" t="n">
-        <v>18978.51</v>
+        <v>19036.09</v>
       </c>
       <c r="E99" t="n">
         <v>1.7</v>
@@ -2931,16 +2931,16 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>5.38</v>
+        <v>5.42</v>
       </c>
       <c r="C100" t="n">
-        <v>3.71</v>
+        <v>3.73</v>
       </c>
       <c r="D100" t="n">
-        <v>6990.61</v>
+        <v>6940.49</v>
       </c>
       <c r="E100" t="n">
-        <v>2.07</v>
+        <v>2.01</v>
       </c>
       <c r="F100" t="n">
         <v>41.43</v>
@@ -2956,16 +2956,16 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="C101" t="n">
-        <v>35.92</v>
+        <v>36.04</v>
       </c>
       <c r="D101" t="n">
-        <v>173846.14</v>
+        <v>172932.99</v>
       </c>
       <c r="E101" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="F101" t="n">
         <v>0.12</v>
@@ -2987,7 +2987,7 @@
         <v>1.5</v>
       </c>
       <c r="D102" t="n">
-        <v>74203.81</v>
+        <v>74234.32000000001</v>
       </c>
       <c r="E102" t="n">
         <v>0.79</v>
@@ -3009,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>3.79</v>
+        <v>3.78</v>
       </c>
       <c r="D103" t="n">
-        <v>71961.98</v>
+        <v>72118.89999999999</v>
       </c>
       <c r="E103" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="F103" t="n">
         <v>24.85</v>
@@ -3034,10 +3034,10 @@
         <v>2.54</v>
       </c>
       <c r="C104" t="n">
-        <v>13.76</v>
+        <v>13.74</v>
       </c>
       <c r="D104" t="n">
-        <v>36244.44</v>
+        <v>36290.08</v>
       </c>
       <c r="E104" t="n">
         <v>1.48</v>
@@ -3056,16 +3056,16 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>3.3</v>
+        <v>3.29</v>
       </c>
       <c r="C105" t="n">
-        <v>48.18</v>
+        <v>48.09</v>
       </c>
       <c r="D105" t="n">
-        <v>16555.43</v>
+        <v>16615.23</v>
       </c>
       <c r="E105" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="F105" t="n">
         <v>10.44</v>
@@ -3087,7 +3087,7 @@
         <v>13.92</v>
       </c>
       <c r="D106" t="n">
-        <v>42909.25</v>
+        <v>42914.75</v>
       </c>
       <c r="E106" t="n">
         <v>1.37</v>
@@ -3109,10 +3109,10 @@
         <v>2.8</v>
       </c>
       <c r="C107" t="n">
-        <v>48.88</v>
+        <v>48.89</v>
       </c>
       <c r="D107" t="n">
-        <v>17472.76</v>
+        <v>17469.61</v>
       </c>
       <c r="E107" t="n">
         <v>0.98</v>
@@ -3131,16 +3131,16 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>2.26</v>
+        <v>2.25</v>
       </c>
       <c r="C108" t="n">
-        <v>11.16</v>
+        <v>11.14</v>
       </c>
       <c r="D108" t="n">
-        <v>52213.7</v>
+        <v>52308.8</v>
       </c>
       <c r="E108" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="F108" t="n">
         <v>41.29</v>
@@ -3159,13 +3159,13 @@
         <v>0.02</v>
       </c>
       <c r="C109" t="n">
-        <v>12.61</v>
+        <v>12.59</v>
       </c>
       <c r="D109" t="n">
-        <v>18733.77</v>
+        <v>18761</v>
       </c>
       <c r="E109" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="F109" t="n">
         <v>19.04</v>
@@ -3181,13 +3181,13 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>4.1</v>
+        <v>4.11</v>
       </c>
       <c r="C110" t="n">
-        <v>5.51</v>
+        <v>5.52</v>
       </c>
       <c r="D110" t="n">
-        <v>136129.51</v>
+        <v>135982.64</v>
       </c>
       <c r="E110" t="n">
         <v>1.39</v>
@@ -3209,13 +3209,13 @@
         <v>0.86</v>
       </c>
       <c r="C111" t="n">
-        <v>6.65</v>
+        <v>6.67</v>
       </c>
       <c r="D111" t="n">
-        <v>46319.94</v>
+        <v>46179.37</v>
       </c>
       <c r="E111" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="F111" t="n">
         <v>16.21</v>
@@ -3237,7 +3237,7 @@
         <v>-1.91</v>
       </c>
       <c r="D112" t="n">
-        <v>319661.11</v>
+        <v>319878.08</v>
       </c>
       <c r="E112" t="n">
         <v>0.72</v>
@@ -3256,16 +3256,16 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>3.56</v>
+        <v>3.53</v>
       </c>
       <c r="C113" t="n">
-        <v>27.54</v>
+        <v>27.41</v>
       </c>
       <c r="D113" t="n">
-        <v>12572.62</v>
+        <v>12656.09</v>
       </c>
       <c r="E113" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="F113" t="n">
         <v>9.9</v>
@@ -3287,7 +3287,7 @@
         <v>-4.87</v>
       </c>
       <c r="D114" t="n">
-        <v>48293.23</v>
+        <v>48326.73</v>
       </c>
       <c r="E114" t="n">
         <v>1.19</v>
@@ -3312,7 +3312,7 @@
         <v>24.95</v>
       </c>
       <c r="D115" t="n">
-        <v>10392.55</v>
+        <v>10393.65</v>
       </c>
       <c r="E115" t="n">
         <v>1.5</v>
@@ -3334,10 +3334,10 @@
         <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>20.19</v>
+        <v>20.21</v>
       </c>
       <c r="D116" t="n">
-        <v>11514.11</v>
+        <v>11500.1</v>
       </c>
       <c r="E116" t="n">
         <v>1.73</v>
@@ -3362,10 +3362,10 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="D117" t="n">
-        <v>290561.73</v>
+        <v>290026.96</v>
       </c>
       <c r="E117" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="F117" t="n">
         <v>34.62</v>
@@ -3381,13 +3381,13 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>3.09</v>
+        <v>3.1</v>
       </c>
       <c r="C118" t="n">
-        <v>-8.949999999999999</v>
+        <v>-8.970000000000001</v>
       </c>
       <c r="D118" t="n">
-        <v>203686.27</v>
+        <v>203259.35</v>
       </c>
       <c r="E118" t="n">
         <v>1.18</v>
@@ -3409,10 +3409,10 @@
         <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>-12.91</v>
+        <v>-12.94</v>
       </c>
       <c r="D119" t="n">
-        <v>33778.09</v>
+        <v>33704.89</v>
       </c>
       <c r="E119" t="n">
         <v>1.65</v>
@@ -3434,10 +3434,10 @@
         <v>1.21</v>
       </c>
       <c r="C120" t="n">
-        <v>19</v>
+        <v>19.01</v>
       </c>
       <c r="D120" t="n">
-        <v>72869.78999999999</v>
+        <v>72859.91</v>
       </c>
       <c r="E120" t="n">
         <v>0.79</v>
@@ -3459,13 +3459,13 @@
         <v>0.72</v>
       </c>
       <c r="C121" t="n">
-        <v>3.91</v>
+        <v>3.92</v>
       </c>
       <c r="D121" t="n">
-        <v>62565.27</v>
+        <v>62432</v>
       </c>
       <c r="E121" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="F121" t="n">
         <v>18.72</v>
@@ -3484,13 +3484,13 @@
         <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>31.3</v>
+        <v>31.13</v>
       </c>
       <c r="D122" t="n">
-        <v>10175.4</v>
+        <v>10256.4</v>
       </c>
       <c r="E122" t="n">
-        <v>2.85</v>
+        <v>2.84</v>
       </c>
       <c r="F122" t="n">
         <v>16.84</v>
@@ -3512,7 +3512,7 @@
         <v>9.24</v>
       </c>
       <c r="D123" t="n">
-        <v>18918.02</v>
+        <v>18910.34</v>
       </c>
       <c r="E123" t="n">
         <v>1.16</v>
@@ -3534,13 +3534,13 @@
         <v>1.52</v>
       </c>
       <c r="C124" t="n">
-        <v>-2.52</v>
+        <v>-2.51</v>
       </c>
       <c r="D124" t="n">
-        <v>38808.71</v>
+        <v>38953.77</v>
       </c>
       <c r="E124" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="F124" t="n">
         <v>19.92</v>
@@ -3556,16 +3556,16 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="C125" t="n">
         <v>-0.66</v>
       </c>
       <c r="D125" t="n">
-        <v>38748.12</v>
+        <v>38597.35</v>
       </c>
       <c r="E125" t="n">
-        <v>4.53</v>
+        <v>4.52</v>
       </c>
       <c r="F125" t="n">
         <v>-5.45</v>
@@ -3581,16 +3581,16 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>3.1</v>
+        <v>3.12</v>
       </c>
       <c r="C126" t="n">
-        <v>35.23</v>
+        <v>35.38</v>
       </c>
       <c r="D126" t="n">
-        <v>101133.5</v>
+        <v>100490</v>
       </c>
       <c r="E126" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="F126" t="n">
         <v>10.97</v>
@@ -3612,7 +3612,7 @@
         <v>3.15</v>
       </c>
       <c r="D127" t="n">
-        <v>291610.83</v>
+        <v>291381.01</v>
       </c>
       <c r="E127" t="n">
         <v>1.37</v>
@@ -3634,13 +3634,13 @@
         <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>72.31</v>
+        <v>72.34</v>
       </c>
       <c r="D128" t="n">
-        <v>9613</v>
+        <v>9597.969999999999</v>
       </c>
       <c r="E128" t="n">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="F128" t="n">
         <v>7.35</v>
@@ -3656,16 +3656,16 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>5.86</v>
+        <v>5.85</v>
       </c>
       <c r="C129" t="n">
-        <v>55</v>
+        <v>54.97</v>
       </c>
       <c r="D129" t="n">
-        <v>37700.25</v>
+        <v>37750.35</v>
       </c>
       <c r="E129" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="F129" t="n">
         <v>19.73</v>
@@ -3684,10 +3684,10 @@
         <v>0.49</v>
       </c>
       <c r="C130" t="n">
-        <v>47.2</v>
+        <v>47.18</v>
       </c>
       <c r="D130" t="n">
-        <v>26108.53</v>
+        <v>26124.61</v>
       </c>
       <c r="E130" t="n">
         <v>1.94</v>
@@ -3709,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>6.85</v>
+        <v>6.86</v>
       </c>
       <c r="D131" t="n">
-        <v>11200.76</v>
+        <v>11193.07</v>
       </c>
       <c r="E131" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="F131" t="n">
         <v>-5.33</v>
@@ -3731,13 +3731,13 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="C132" t="n">
-        <v>13.09</v>
+        <v>13.11</v>
       </c>
       <c r="D132" t="n">
-        <v>31413.58</v>
+        <v>31371.43</v>
       </c>
       <c r="E132" t="n">
         <v>3.79</v>
@@ -3762,10 +3762,10 @@
         <v>2.33</v>
       </c>
       <c r="D133" t="n">
-        <v>109522.17</v>
+        <v>109677.08</v>
       </c>
       <c r="E133" t="n">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F133" t="n">
         <v>3.55</v>
@@ -3781,16 +3781,16 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>2.54</v>
+        <v>2.55</v>
       </c>
       <c r="C134" t="n">
-        <v>-17.12</v>
+        <v>-17.19</v>
       </c>
       <c r="D134" t="n">
-        <v>27720</v>
+        <v>27622.5</v>
       </c>
       <c r="E134" t="n">
-        <v>2.92</v>
+        <v>2.91</v>
       </c>
       <c r="F134" t="n">
         <v>32.97</v>
@@ -3806,13 +3806,13 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="C135" t="n">
-        <v>36.71</v>
+        <v>36.67</v>
       </c>
       <c r="D135" t="n">
-        <v>29789.3</v>
+        <v>29837.72</v>
       </c>
       <c r="E135" t="n">
         <v>1.48</v>
@@ -3834,13 +3834,13 @@
         <v>2.18</v>
       </c>
       <c r="C136" t="n">
-        <v>24.52</v>
+        <v>24.49</v>
       </c>
       <c r="D136" t="n">
-        <v>14417.23</v>
+        <v>14436.66</v>
       </c>
       <c r="E136" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="F136" t="n">
         <v>11.4</v>
@@ -3859,13 +3859,13 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="C137" t="n">
-        <v>2.5</v>
+        <v>2.49</v>
       </c>
       <c r="D137" t="n">
-        <v>49522.09</v>
+        <v>49651.68</v>
       </c>
       <c r="E137" t="n">
-        <v>2.58</v>
+        <v>2.59</v>
       </c>
       <c r="F137" t="n">
         <v>50.72</v>
@@ -3884,10 +3884,10 @@
         <v>0.45</v>
       </c>
       <c r="C138" t="n">
-        <v>6.44</v>
+        <v>6.43</v>
       </c>
       <c r="D138" t="n">
-        <v>182072.35</v>
+        <v>182398.34</v>
       </c>
       <c r="E138" t="n">
         <v>1.58</v>
@@ -3912,7 +3912,7 @@
         <v>15.78</v>
       </c>
       <c r="D139" t="n">
-        <v>194750.04</v>
+        <v>194681.11</v>
       </c>
       <c r="E139" t="n">
         <v>2.93</v>
@@ -3931,16 +3931,16 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>3.44</v>
+        <v>3.46</v>
       </c>
       <c r="C140" t="n">
-        <v>29.84</v>
+        <v>29.97</v>
       </c>
       <c r="D140" t="n">
-        <v>42146.58</v>
+        <v>41880.18</v>
       </c>
       <c r="E140" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="F140" t="n">
         <v>16.73</v>
@@ -3959,13 +3959,13 @@
         <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>23.14</v>
+        <v>23.09</v>
       </c>
       <c r="D141" t="n">
-        <v>31508.79</v>
+        <v>31597.28</v>
       </c>
       <c r="E141" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="F141" t="n">
         <v>24.58</v>
@@ -3987,7 +3987,7 @@
         <v>11.9</v>
       </c>
       <c r="D142" t="n">
-        <v>22655.9</v>
+        <v>22655.2</v>
       </c>
       <c r="E142" t="n">
         <v>1.35</v>
@@ -4009,13 +4009,13 @@
         <v>5.12</v>
       </c>
       <c r="C143" t="n">
-        <v>26.05</v>
+        <v>26.08</v>
       </c>
       <c r="D143" t="n">
-        <v>38538.35</v>
+        <v>38485.68</v>
       </c>
       <c r="E143" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="F143" t="n">
         <v>10.63</v>
@@ -4034,10 +4034,10 @@
         <v>1.04</v>
       </c>
       <c r="C144" t="n">
-        <v>25.55</v>
+        <v>25.49</v>
       </c>
       <c r="D144" t="n">
-        <v>15087.38</v>
+        <v>15139.8</v>
       </c>
       <c r="E144" t="n">
         <v>1.52</v>
@@ -4059,13 +4059,13 @@
         <v>2.95</v>
       </c>
       <c r="C145" t="n">
-        <v>21.73</v>
+        <v>21.71</v>
       </c>
       <c r="D145" t="n">
-        <v>19997.85</v>
+        <v>20026.31</v>
       </c>
       <c r="E145" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="F145" t="n">
         <v>10.83</v>
@@ -4081,16 +4081,16 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>3.14</v>
+        <v>3.13</v>
       </c>
       <c r="C146" t="n">
-        <v>46.84</v>
+        <v>46.74</v>
       </c>
       <c r="D146" t="n">
-        <v>21790.86</v>
+        <v>21877.23</v>
       </c>
       <c r="E146" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="F146" t="n">
         <v>13.42</v>
@@ -4106,16 +4106,16 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>4.47</v>
+        <v>4.45</v>
       </c>
       <c r="C147" t="n">
-        <v>51.79</v>
+        <v>51.71</v>
       </c>
       <c r="D147" t="n">
-        <v>71148</v>
+        <v>71363.60000000001</v>
       </c>
       <c r="E147" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="F147" t="n">
         <v>14.05</v>
@@ -4134,13 +4134,13 @@
         <v>0</v>
       </c>
       <c r="C148" t="n">
-        <v>52.88</v>
+        <v>52.67</v>
       </c>
       <c r="D148" t="n">
-        <v>10247.18</v>
+        <v>10333.07</v>
       </c>
       <c r="E148" t="n">
-        <v>1.69</v>
+        <v>1.78</v>
       </c>
       <c r="F148" t="n">
         <v>38.33</v>
@@ -4156,16 +4156,16 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>12.21</v>
+        <v>12.25</v>
       </c>
       <c r="C149" t="n">
-        <v>15.98</v>
+        <v>16.03</v>
       </c>
       <c r="D149" t="n">
-        <v>27674.14</v>
+        <v>27582.72</v>
       </c>
       <c r="E149" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="F149" t="n">
         <v>-10.35</v>
@@ -4187,7 +4187,7 @@
         <v>-0.68</v>
       </c>
       <c r="D150" t="n">
-        <v>45763.03</v>
+        <v>45745.65</v>
       </c>
       <c r="E150" t="n">
         <v>2</v>
@@ -4206,16 +4206,16 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.55</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C151" t="n">
-        <v>-1.45</v>
+        <v>-1.47</v>
       </c>
       <c r="D151" t="n">
-        <v>37990.68</v>
+        <v>37551.15</v>
       </c>
       <c r="E151" t="n">
-        <v>0.86</v>
+        <v>0.97</v>
       </c>
       <c r="F151" t="n">
         <v>9.17</v>
@@ -4231,16 +4231,16 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>2.1</v>
+        <v>2.09</v>
       </c>
       <c r="C152" t="n">
-        <v>13.23</v>
+        <v>13.17</v>
       </c>
       <c r="D152" t="n">
-        <v>23314.45</v>
+        <v>23441.11</v>
       </c>
       <c r="E152" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="F152" t="n">
         <v>2.59</v>
@@ -4259,10 +4259,10 @@
         <v>1.04</v>
       </c>
       <c r="C153" t="n">
-        <v>12.72</v>
+        <v>12.73</v>
       </c>
       <c r="D153" t="n">
-        <v>57833.16</v>
+        <v>57759.19</v>
       </c>
       <c r="E153" t="n">
         <v>1.05</v>
@@ -4281,16 +4281,16 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>3.44</v>
+        <v>3.43</v>
       </c>
       <c r="C154" t="n">
-        <v>42.23</v>
+        <v>42.15</v>
       </c>
       <c r="D154" t="n">
-        <v>31653.58</v>
+        <v>31754.75</v>
       </c>
       <c r="E154" t="n">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="F154" t="n">
         <v>5.81</v>
@@ -4309,13 +4309,13 @@
         <v>0.61</v>
       </c>
       <c r="C155" t="n">
-        <v>15.19</v>
+        <v>15.18</v>
       </c>
       <c r="D155" t="n">
-        <v>31317.12</v>
+        <v>31341.63</v>
       </c>
       <c r="E155" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="F155" t="n">
         <v>36.15</v>
@@ -4331,16 +4331,16 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="C156" t="n">
-        <v>11.49</v>
+        <v>11.52</v>
       </c>
       <c r="D156" t="n">
-        <v>14121.12</v>
+        <v>14073.54</v>
       </c>
       <c r="E156" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="F156" t="n">
         <v>-4.78</v>
@@ -4356,16 +4356,16 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>4.22</v>
+        <v>4.2</v>
       </c>
       <c r="C157" t="n">
-        <v>56.38</v>
+        <v>56.3</v>
       </c>
       <c r="D157" t="n">
-        <v>24900.88</v>
+        <v>24981.15</v>
       </c>
       <c r="E157" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="F157" t="n">
         <v>15.39</v>
@@ -4381,16 +4381,16 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="C158" t="n">
-        <v>10.58</v>
+        <v>10.54</v>
       </c>
       <c r="D158" t="n">
-        <v>51983.63</v>
+        <v>52174.96</v>
       </c>
       <c r="E158" t="n">
-        <v>3.43</v>
+        <v>3.44</v>
       </c>
       <c r="F158" t="n">
         <v>-1.58</v>
@@ -4409,10 +4409,10 @@
         <v>1.18</v>
       </c>
       <c r="C159" t="n">
-        <v>-10.48</v>
+        <v>-10.47</v>
       </c>
       <c r="D159" t="n">
-        <v>118548.61</v>
+        <v>118708.39</v>
       </c>
       <c r="E159" t="n">
         <v>0.8</v>
@@ -4431,16 +4431,16 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>3.81</v>
+        <v>3.82</v>
       </c>
       <c r="C160" t="n">
-        <v>32.98</v>
+        <v>33.06</v>
       </c>
       <c r="D160" t="n">
-        <v>9866.1</v>
+        <v>9832.09</v>
       </c>
       <c r="E160" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="F160" t="n">
         <v>24.67</v>
@@ -4459,10 +4459,10 @@
         <v>2.01</v>
       </c>
       <c r="C161" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="D161" t="n">
-        <v>59502.3</v>
+        <v>59665.32</v>
       </c>
       <c r="E161" t="n">
         <v>2.72</v>
@@ -4487,10 +4487,10 @@
         <v>-1.72</v>
       </c>
       <c r="D162" t="n">
-        <v>17603.62</v>
+        <v>17587.24</v>
       </c>
       <c r="E162" t="n">
-        <v>4.82</v>
+        <v>4.81</v>
       </c>
       <c r="F162" t="n">
         <v>14.47</v>
@@ -4506,16 +4506,16 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>7.77</v>
+        <v>7.76</v>
       </c>
       <c r="C163" t="n">
         <v>-0.02</v>
       </c>
       <c r="D163" t="n">
-        <v>66260.96000000001</v>
+        <v>66333.3</v>
       </c>
       <c r="E163" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="F163" t="n">
         <v>-11.84</v>
@@ -4534,10 +4534,10 @@
         <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>-10.2</v>
+        <v>-10.18</v>
       </c>
       <c r="D164" t="n">
-        <v>16732.06</v>
+        <v>16759.44</v>
       </c>
       <c r="E164" t="n">
         <v>1.6</v>
@@ -4559,10 +4559,10 @@
         <v>1.46</v>
       </c>
       <c r="C165" t="n">
-        <v>15.62</v>
+        <v>15.61</v>
       </c>
       <c r="D165" t="n">
-        <v>78652.11</v>
+        <v>78725.74000000001</v>
       </c>
       <c r="E165" t="n">
         <v>1.29</v>
@@ -4587,7 +4587,7 @@
         <v>25.42</v>
       </c>
       <c r="D166" t="n">
-        <v>22450.26</v>
+        <v>22446.47</v>
       </c>
       <c r="E166" t="n">
         <v>1.19</v>
@@ -4606,16 +4606,16 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="C167" t="n">
-        <v>25</v>
+        <v>25.06</v>
       </c>
       <c r="D167" t="n">
-        <v>12804.15</v>
+        <v>12765.78</v>
       </c>
       <c r="E167" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="F167" t="n">
         <v>-10.53</v>
@@ -4631,13 +4631,13 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>4.48</v>
+        <v>4.49</v>
       </c>
       <c r="C168" t="n">
-        <v>53.46</v>
+        <v>53.48</v>
       </c>
       <c r="D168" t="n">
-        <v>19349.09</v>
+        <v>19331.66</v>
       </c>
       <c r="E168" t="n">
         <v>1.6</v>
@@ -4662,7 +4662,7 @@
         <v>28.76</v>
       </c>
       <c r="D169" t="n">
-        <v>14906.22</v>
+        <v>14905.57</v>
       </c>
       <c r="E169" t="n">
         <v>1.24</v>
@@ -4684,13 +4684,13 @@
         <v>1.19</v>
       </c>
       <c r="C170" t="n">
-        <v>6.19</v>
+        <v>6.17</v>
       </c>
       <c r="D170" t="n">
-        <v>108927.05</v>
+        <v>109420.18</v>
       </c>
       <c r="E170" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="F170" t="n">
         <v>23.86</v>
@@ -4706,16 +4706,16 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>4.12</v>
+        <v>4.11</v>
       </c>
       <c r="C171" t="n">
-        <v>56.15</v>
+        <v>56.1</v>
       </c>
       <c r="D171" t="n">
-        <v>20872.68</v>
+        <v>20919.14</v>
       </c>
       <c r="E171" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="F171" t="n">
         <v>13.43</v>
@@ -4734,13 +4734,13 @@
         <v>0</v>
       </c>
       <c r="C172" t="n">
-        <v>11.31</v>
+        <v>11.34</v>
       </c>
       <c r="D172" t="n">
-        <v>9889.92</v>
+        <v>9860.530000000001</v>
       </c>
       <c r="E172" t="n">
-        <v>3.11</v>
+        <v>3.1</v>
       </c>
       <c r="F172" t="n">
         <v>9.65</v>
@@ -4756,16 +4756,16 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>4.71</v>
+        <v>4.68</v>
       </c>
       <c r="C173" t="n">
-        <v>51.55</v>
+        <v>51.41</v>
       </c>
       <c r="D173" t="n">
-        <v>11357.94</v>
+        <v>11424.51</v>
       </c>
       <c r="E173" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="F173" t="n">
         <v>11.44</v>
@@ -4787,10 +4787,10 @@
         <v>-1</v>
       </c>
       <c r="D174" t="n">
-        <v>52906.89</v>
+        <v>53013.35</v>
       </c>
       <c r="E174" t="n">
-        <v>2.78</v>
+        <v>2.79</v>
       </c>
       <c r="F174" t="n">
         <v>7.21</v>
@@ -4806,16 +4806,16 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>3.91</v>
+        <v>3.9</v>
       </c>
       <c r="C175" t="n">
-        <v>53.58</v>
+        <v>53.54</v>
       </c>
       <c r="D175" t="n">
-        <v>34119.05</v>
+        <v>34173.72</v>
       </c>
       <c r="E175" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="F175" t="n">
         <v>-6.07</v>
@@ -4831,16 +4831,16 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="C176" t="n">
-        <v>-8.4</v>
+        <v>-8.42</v>
       </c>
       <c r="D176" t="n">
-        <v>19555.31</v>
+        <v>19514.42</v>
       </c>
       <c r="E176" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="F176" t="n">
         <v>11.4</v>
@@ -4859,13 +4859,13 @@
         <v>0</v>
       </c>
       <c r="C177" t="n">
-        <v>10.74</v>
+        <v>10.82</v>
       </c>
       <c r="D177" t="n">
-        <v>20650.65</v>
+        <v>20478.21</v>
       </c>
       <c r="E177" t="n">
-        <v>4.38</v>
+        <v>4.35</v>
       </c>
       <c r="F177" t="n">
         <v>56.05</v>
@@ -4881,16 +4881,16 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>4.22</v>
+        <v>4.23</v>
       </c>
       <c r="C178" t="n">
-        <v>28.14</v>
+        <v>28.19</v>
       </c>
       <c r="D178" t="n">
-        <v>19074.37</v>
+        <v>19019.46</v>
       </c>
       <c r="E178" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="F178" t="n">
         <v>40.87</v>
@@ -4906,16 +4906,16 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>9.630000000000001</v>
+        <v>9.65</v>
       </c>
       <c r="C179" t="n">
-        <v>-30.92</v>
+        <v>-31</v>
       </c>
       <c r="D179" t="n">
-        <v>51880.16</v>
+        <v>51780.5</v>
       </c>
       <c r="E179" t="n">
-        <v>2.54</v>
+        <v>2.53</v>
       </c>
       <c r="F179" t="n">
         <v>-0.17</v>
@@ -4931,16 +4931,16 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>5.28</v>
+        <v>5.27</v>
       </c>
       <c r="C180" t="n">
-        <v>16.97</v>
+        <v>16.95</v>
       </c>
       <c r="D180" t="n">
-        <v>29794.22</v>
+        <v>29849.97</v>
       </c>
       <c r="E180" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="F180" t="n">
         <v>-6.94</v>
@@ -4962,7 +4962,7 @@
         <v>0.78</v>
       </c>
       <c r="D181" t="n">
-        <v>40095.96</v>
+        <v>40044.49</v>
       </c>
       <c r="E181" t="n">
         <v>1.89</v>
@@ -4987,7 +4987,7 @@
         <v>7.95</v>
       </c>
       <c r="D182" t="n">
-        <v>54017.92</v>
+        <v>54039.43</v>
       </c>
       <c r="E182" t="n">
         <v>2.4</v>
@@ -5009,13 +5009,13 @@
         <v>0.77</v>
       </c>
       <c r="C183" t="n">
-        <v>7.14</v>
+        <v>7.16</v>
       </c>
       <c r="D183" t="n">
-        <v>17983.34</v>
+        <v>17919.42</v>
       </c>
       <c r="E183" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="F183" t="n">
         <v>8.08</v>
@@ -5034,13 +5034,13 @@
         <v>1.92</v>
       </c>
       <c r="C184" t="n">
-        <v>33.94</v>
+        <v>33.9</v>
       </c>
       <c r="D184" t="n">
-        <v>61265.82</v>
+        <v>61372.58</v>
       </c>
       <c r="E184" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F184" t="n">
         <v>4.45</v>
@@ -5056,16 +5056,16 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>4.15</v>
+        <v>4.12</v>
       </c>
       <c r="C185" t="n">
-        <v>50.3</v>
+        <v>50.16</v>
       </c>
       <c r="D185" t="n">
-        <v>21483.52</v>
+        <v>21603.66</v>
       </c>
       <c r="E185" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="F185" t="n">
         <v>9.66</v>
@@ -5084,13 +5084,13 @@
         <v>0</v>
       </c>
       <c r="C186" t="n">
-        <v>-4.99</v>
+        <v>-5.03</v>
       </c>
       <c r="D186" t="n">
-        <v>11093.62</v>
+        <v>11021.98</v>
       </c>
       <c r="E186" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="F186" t="n">
         <v>20.3</v>
@@ -5109,10 +5109,10 @@
         <v>0</v>
       </c>
       <c r="C187" t="n">
-        <v>18.97</v>
+        <v>18.96</v>
       </c>
       <c r="D187" t="n">
-        <v>90861.75</v>
+        <v>90902.7</v>
       </c>
       <c r="E187" t="n">
         <v>0.88</v>
@@ -5134,13 +5134,13 @@
         <v>0</v>
       </c>
       <c r="C188" t="n">
-        <v>5.08</v>
+        <v>5.11</v>
       </c>
       <c r="D188" t="n">
-        <v>32377.36</v>
+        <v>32176.73</v>
       </c>
       <c r="E188" t="n">
-        <v>2.21</v>
+        <v>2.24</v>
       </c>
       <c r="F188" t="n">
         <v>32.77</v>
@@ -5159,10 +5159,10 @@
         <v>3.09</v>
       </c>
       <c r="C189" t="n">
-        <v>33.28</v>
+        <v>33.27</v>
       </c>
       <c r="D189" t="n">
-        <v>36810.43</v>
+        <v>36837.03</v>
       </c>
       <c r="E189" t="n">
         <v>1.47</v>
@@ -5181,16 +5181,16 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>3.96</v>
+        <v>3.99</v>
       </c>
       <c r="C190" t="n">
-        <v>-32.83</v>
+        <v>-33.19</v>
       </c>
       <c r="D190" t="n">
-        <v>23427.29</v>
+        <v>23233.17</v>
       </c>
       <c r="E190" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="F190" t="n">
         <v>49.26</v>
@@ -5209,13 +5209,13 @@
         <v>0</v>
       </c>
       <c r="C191" t="n">
-        <v>22.41</v>
+        <v>22.32</v>
       </c>
       <c r="D191" t="n">
-        <v>19770.37</v>
+        <v>19876.95</v>
       </c>
       <c r="E191" t="n">
-        <v>2.6</v>
+        <v>2.59</v>
       </c>
       <c r="F191" t="n">
         <v>19.16</v>
@@ -5290,13 +5290,13 @@
         <v>1.97</v>
       </c>
       <c r="C194" t="n">
-        <v>20.61</v>
+        <v>20.59</v>
       </c>
       <c r="D194" t="n">
-        <v>15158.79</v>
+        <v>15173.74</v>
       </c>
       <c r="E194" t="n">
-        <v>2.09</v>
+        <v>2.1</v>
       </c>
       <c r="F194" t="n">
         <v>2.1</v>
@@ -5312,13 +5312,13 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>4.22</v>
+        <v>4.24</v>
       </c>
       <c r="C195" t="n">
-        <v>34.77</v>
+        <v>34.88</v>
       </c>
       <c r="D195" t="n">
-        <v>8232.719999999999</v>
+        <v>8193.68</v>
       </c>
       <c r="E195" t="n">
         <v>1.31</v>
@@ -5340,13 +5340,13 @@
         <v>0</v>
       </c>
       <c r="C196" t="n">
-        <v>-16.3</v>
+        <v>-16.26</v>
       </c>
       <c r="D196" t="n">
-        <v>16726.97</v>
+        <v>16761.08</v>
       </c>
       <c r="E196" t="n">
-        <v>2.8</v>
+        <v>2.81</v>
       </c>
       <c r="F196" t="n">
         <v>6.03</v>
@@ -5368,7 +5368,7 @@
         <v>-2.09</v>
       </c>
       <c r="D197" t="n">
-        <v>54896.47</v>
+        <v>54908.19</v>
       </c>
       <c r="E197" t="n">
         <v>2.16</v>
@@ -5390,10 +5390,10 @@
         <v>0.35</v>
       </c>
       <c r="C198" t="n">
-        <v>5.68</v>
+        <v>5.69</v>
       </c>
       <c r="D198" t="n">
-        <v>29178.24</v>
+        <v>29153.69</v>
       </c>
       <c r="E198" t="n">
         <v>1.64</v>
@@ -5418,7 +5418,7 @@
         <v>9.06</v>
       </c>
       <c r="D199" t="n">
-        <v>73754.34</v>
+        <v>73718.77</v>
       </c>
       <c r="E199" t="n">
         <v>1.33</v>
@@ -5440,10 +5440,10 @@
         <v>0.39</v>
       </c>
       <c r="C200" t="n">
-        <v>-17.51</v>
+        <v>-17.52</v>
       </c>
       <c r="D200" t="n">
-        <v>152651.58</v>
+        <v>152569.94</v>
       </c>
       <c r="E200" t="n">
         <v>1</v>
@@ -5465,13 +5465,13 @@
         <v>0.11</v>
       </c>
       <c r="C201" t="n">
-        <v>15.76</v>
+        <v>15.73</v>
       </c>
       <c r="D201" t="n">
-        <v>37727.29</v>
+        <v>37818.23</v>
       </c>
       <c r="E201" t="n">
-        <v>2.99</v>
+        <v>3</v>
       </c>
       <c r="F201" t="n">
         <v>19.03</v>
@@ -5487,16 +5487,16 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>2.23</v>
+        <v>2.24</v>
       </c>
       <c r="C202" t="n">
-        <v>39.19</v>
+        <v>39.29</v>
       </c>
       <c r="D202" t="n">
-        <v>14070.4</v>
+        <v>14016</v>
       </c>
       <c r="E202" t="n">
-        <v>2.99</v>
+        <v>2.97</v>
       </c>
       <c r="F202" t="n">
         <v>36.79</v>
@@ -5512,16 +5512,16 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>4.01</v>
+        <v>4</v>
       </c>
       <c r="C203" t="n">
-        <v>16.42</v>
+        <v>16.37</v>
       </c>
       <c r="D203" t="n">
-        <v>92546.10000000001</v>
+        <v>92839.14999999999</v>
       </c>
       <c r="E203" t="n">
-        <v>2.53</v>
+        <v>2.54</v>
       </c>
       <c r="F203" t="n">
         <v>11.37</v>
@@ -5537,16 +5537,16 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>3.49</v>
+        <v>3.48</v>
       </c>
       <c r="C204" t="n">
-        <v>23.74</v>
+        <v>23.68</v>
       </c>
       <c r="D204" t="n">
-        <v>36867.81</v>
+        <v>36996.86</v>
       </c>
       <c r="E204" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="F204" t="n">
         <v>0.25</v>
@@ -5565,13 +5565,13 @@
         <v>0.66</v>
       </c>
       <c r="C205" t="n">
-        <v>13.92</v>
+        <v>13.97</v>
       </c>
       <c r="D205" t="n">
-        <v>12276.29</v>
+        <v>12221.15</v>
       </c>
       <c r="E205" t="n">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F205" t="n">
         <v>8.08</v>
@@ -5590,10 +5590,10 @@
         <v>3.75</v>
       </c>
       <c r="C206" t="n">
-        <v>17.89</v>
+        <v>17.88</v>
       </c>
       <c r="D206" t="n">
-        <v>26383.5</v>
+        <v>26391.7</v>
       </c>
       <c r="E206" t="n">
         <v>1.86</v>
@@ -5612,16 +5612,16 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="C207" t="n">
-        <v>-7.82</v>
+        <v>-7.84</v>
       </c>
       <c r="D207" t="n">
-        <v>47250</v>
+        <v>47136</v>
       </c>
       <c r="E207" t="n">
-        <v>2.16</v>
+        <v>2.15</v>
       </c>
       <c r="F207" t="n">
         <v>20.67</v>
@@ -5640,13 +5640,13 @@
         <v>0</v>
       </c>
       <c r="C208" t="n">
-        <v>14.8</v>
+        <v>14.89</v>
       </c>
       <c r="D208" t="n">
-        <v>8067.72</v>
+        <v>8011.84</v>
       </c>
       <c r="E208" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="F208" t="n">
         <v>39.86</v>
@@ -5677,7 +5677,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="F209" t="n">
         <v>4.6</v>
@@ -5696,10 +5696,10 @@
         <v>0</v>
       </c>
       <c r="C210" t="n">
-        <v>-4.66</v>
+        <v>-4.67</v>
       </c>
       <c r="D210" t="n">
-        <v>1841525.68</v>
+        <v>1838223.78</v>
       </c>
       <c r="E210" t="n">
         <v>2.05</v>
@@ -5721,13 +5721,13 @@
         <v>2.42</v>
       </c>
       <c r="C211" t="n">
-        <v>15.64</v>
+        <v>15.66</v>
       </c>
       <c r="D211" t="n">
-        <v>20485.87</v>
+        <v>20452.04</v>
       </c>
       <c r="E211" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="F211" t="n">
         <v>8.220000000000001</v>
@@ -5746,13 +5746,13 @@
         <v>0.76</v>
       </c>
       <c r="C212" t="n">
-        <v>26.03</v>
+        <v>26</v>
       </c>
       <c r="D212" t="n">
-        <v>36175.86</v>
+        <v>36226.37</v>
       </c>
       <c r="E212" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="F212" t="n">
         <v>19.76</v>
@@ -5771,10 +5771,10 @@
         <v>2.87</v>
       </c>
       <c r="C213" t="n">
-        <v>-11.93</v>
+        <v>-11.91</v>
       </c>
       <c r="D213" t="n">
-        <v>23646.28</v>
+        <v>23688.44</v>
       </c>
       <c r="E213" t="n">
         <v>1.06</v>
@@ -5793,16 +5793,16 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="C214" t="n">
-        <v>58.08</v>
+        <v>58.02</v>
       </c>
       <c r="D214" t="n">
-        <v>127757.64</v>
+        <v>128090.27</v>
       </c>
       <c r="E214" t="n">
-        <v>0.99</v>
+        <v>1.02</v>
       </c>
       <c r="F214" t="n">
         <v>26.24</v>
@@ -5821,13 +5821,13 @@
         <v>0.82</v>
       </c>
       <c r="C215" t="n">
-        <v>4.75</v>
+        <v>4.76</v>
       </c>
       <c r="D215" t="n">
-        <v>47747.78</v>
+        <v>47595.25</v>
       </c>
       <c r="E215" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="F215" t="n">
         <v>22.7</v>
@@ -5846,10 +5846,10 @@
         <v>1.86</v>
       </c>
       <c r="C216" t="n">
-        <v>17.47</v>
+        <v>17.48</v>
       </c>
       <c r="D216" t="n">
-        <v>30910.61</v>
+        <v>30897.19</v>
       </c>
       <c r="E216" t="n">
         <v>1.8</v>
@@ -5868,16 +5868,16 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>5.41</v>
+        <v>5.44</v>
       </c>
       <c r="C217" t="n">
-        <v>33.48</v>
+        <v>33.59</v>
       </c>
       <c r="D217" t="n">
-        <v>7121.82</v>
+        <v>7087.27</v>
       </c>
       <c r="E217" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="F217" t="n">
         <v>-10.31</v>
@@ -5894,13 +5894,13 @@
       </c>
       <c r="B218" t="inlineStr"/>
       <c r="C218" t="n">
-        <v>12.73</v>
+        <v>12.8</v>
       </c>
       <c r="D218" t="n">
-        <v>18444.35</v>
+        <v>18335.73</v>
       </c>
       <c r="E218" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="F218" t="n">
         <v>30.83</v>
@@ -5919,10 +5919,10 @@
         <v>0.8</v>
       </c>
       <c r="C219" t="n">
-        <v>32.86</v>
+        <v>32.82</v>
       </c>
       <c r="D219" t="n">
-        <v>82865.11</v>
+        <v>83008.31</v>
       </c>
       <c r="E219" t="n">
         <v>1.82</v>
@@ -5941,13 +5941,13 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>2.09</v>
+        <v>2.1</v>
       </c>
       <c r="C220" t="n">
-        <v>11.34</v>
+        <v>11.36</v>
       </c>
       <c r="D220" t="n">
-        <v>372170.96</v>
+        <v>371510.56</v>
       </c>
       <c r="E220" t="n">
         <v>1.08</v>
@@ -5966,16 +5966,16 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="C221" t="n">
-        <v>15.25</v>
+        <v>15.21</v>
       </c>
       <c r="D221" t="n">
-        <v>43962.62</v>
+        <v>44090.09</v>
       </c>
       <c r="E221" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="F221" t="n">
         <v>-12.11</v>
@@ -5991,13 +5991,13 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="C222" t="n">
-        <v>13.27</v>
+        <v>13.31</v>
       </c>
       <c r="D222" t="n">
-        <v>27282.9</v>
+        <v>27173.95</v>
       </c>
       <c r="E222" t="n">
         <v>1.04</v>
@@ -6019,13 +6019,13 @@
         <v>1.83</v>
       </c>
       <c r="C223" t="n">
-        <v>17.31</v>
+        <v>17.36</v>
       </c>
       <c r="D223" t="n">
-        <v>10955.61</v>
+        <v>10920.55</v>
       </c>
       <c r="E223" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="F223" t="n">
         <v>17.72</v>
@@ -6041,13 +6041,13 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="C224" t="n">
-        <v>14.07</v>
+        <v>14.06</v>
       </c>
       <c r="D224" t="n">
-        <v>51788.11</v>
+        <v>51863.11</v>
       </c>
       <c r="E224" t="n">
         <v>0.92</v>
@@ -6069,13 +6069,13 @@
         <v>0</v>
       </c>
       <c r="C225" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="D225" t="n">
-        <v>17884.05</v>
+        <v>17900.97</v>
       </c>
       <c r="E225" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="F225" t="n">
         <v>7.68</v>
@@ -6091,16 +6091,16 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>2.2</v>
+        <v>2.19</v>
       </c>
       <c r="C226" t="n">
-        <v>8.68</v>
+        <v>8.67</v>
       </c>
       <c r="D226" t="n">
-        <v>129944.89</v>
+        <v>130103.11</v>
       </c>
       <c r="E226" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="F226" t="n">
         <v>11.4</v>
@@ -6116,16 +6116,16 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>3.1</v>
+        <v>3.09</v>
       </c>
       <c r="C227" t="n">
-        <v>31.62</v>
+        <v>31.57</v>
       </c>
       <c r="D227" t="n">
-        <v>19995.56</v>
+        <v>20040.46</v>
       </c>
       <c r="E227" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="F227" t="n">
         <v>4.54</v>
@@ -6141,16 +6141,16 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>3.66</v>
+        <v>3.65</v>
       </c>
       <c r="C228" t="n">
-        <v>20.95</v>
+        <v>20.92</v>
       </c>
       <c r="D228" t="n">
-        <v>28329.91</v>
+        <v>28379.35</v>
       </c>
       <c r="E228" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="F228" t="n">
         <v>15.19</v>
@@ -6166,16 +6166,16 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>3.69</v>
+        <v>3.66</v>
       </c>
       <c r="C229" t="n">
-        <v>14.51</v>
+        <v>14.42</v>
       </c>
       <c r="D229" t="n">
-        <v>16064.56</v>
+        <v>16184.81</v>
       </c>
       <c r="E229" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="F229" t="n">
         <v>2.75</v>
@@ -6194,13 +6194,13 @@
         <v>0</v>
       </c>
       <c r="C230" t="n">
-        <v>12.17</v>
+        <v>12.15</v>
       </c>
       <c r="D230" t="n">
-        <v>9956.950000000001</v>
+        <v>9980.67</v>
       </c>
       <c r="E230" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="F230" t="n">
         <v>9.42</v>
@@ -6247,7 +6247,7 @@
         <v>10.49</v>
       </c>
       <c r="D232" t="n">
-        <v>39718.06</v>
+        <v>39703.92</v>
       </c>
       <c r="E232" t="n">
         <v>1.72</v>
@@ -6269,13 +6269,13 @@
         <v>1.27</v>
       </c>
       <c r="C233" t="n">
-        <v>8.470000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="D233" t="n">
-        <v>19375.86</v>
+        <v>19290.64</v>
       </c>
       <c r="E233" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="F233" t="n">
         <v>16.85</v>
@@ -6294,10 +6294,10 @@
         <v>0.96</v>
       </c>
       <c r="C234" t="n">
-        <v>-28.69</v>
+        <v>-28.65</v>
       </c>
       <c r="D234" t="n">
-        <v>45085.46</v>
+        <v>45130.07</v>
       </c>
       <c r="E234" t="n">
         <v>3.58</v>
@@ -6319,10 +6319,10 @@
         <v>0.18</v>
       </c>
       <c r="C235" t="n">
-        <v>12.63</v>
+        <v>12.57</v>
       </c>
       <c r="D235" t="n">
-        <v>24113.13</v>
+        <v>24247.08</v>
       </c>
       <c r="E235" t="n">
         <v>1.32</v>
@@ -6341,13 +6341,13 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>3.56</v>
+        <v>3.55</v>
       </c>
       <c r="C236" t="n">
-        <v>21.49</v>
+        <v>21.47</v>
       </c>
       <c r="D236" t="n">
-        <v>169808.17</v>
+        <v>170013.63</v>
       </c>
       <c r="E236" t="n">
         <v>2.37</v>
@@ -6369,10 +6369,10 @@
         <v>1.26</v>
       </c>
       <c r="C237" t="n">
-        <v>18</v>
+        <v>18.02</v>
       </c>
       <c r="D237" t="n">
-        <v>75831.14</v>
+        <v>75733.32000000001</v>
       </c>
       <c r="E237" t="n">
         <v>1.33</v>
@@ -6397,7 +6397,7 @@
         <v>2.62</v>
       </c>
       <c r="D238" t="n">
-        <v>46864.95</v>
+        <v>46881.53</v>
       </c>
       <c r="E238" t="n">
         <v>2.37</v>
@@ -6416,16 +6416,16 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="C239" t="n">
-        <v>6.27</v>
+        <v>6.31</v>
       </c>
       <c r="D239" t="n">
-        <v>17280.06</v>
+        <v>17161.34</v>
       </c>
       <c r="E239" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="F239" t="n">
         <v>7.3</v>
@@ -6441,16 +6441,16 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>3.94</v>
+        <v>3.96</v>
       </c>
       <c r="C240" t="n">
-        <v>35.19</v>
+        <v>35.26</v>
       </c>
       <c r="D240" t="n">
-        <v>20532.61</v>
+        <v>20473.97</v>
       </c>
       <c r="E240" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="F240" t="n">
         <v>23.92</v>
@@ -6469,13 +6469,13 @@
         <v>0</v>
       </c>
       <c r="C241" t="n">
-        <v>6.47</v>
+        <v>6.42</v>
       </c>
       <c r="D241" t="n">
-        <v>21952.52</v>
+        <v>22113.68</v>
       </c>
       <c r="E241" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="F241" t="n">
         <v>15.54</v>
@@ -6494,13 +6494,13 @@
         <v>0</v>
       </c>
       <c r="C242" t="n">
-        <v>-32.63</v>
+        <v>-32.82</v>
       </c>
       <c r="D242" t="n">
-        <v>12939.36</v>
+        <v>12883.67</v>
       </c>
       <c r="E242" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="F242" t="n">
         <v>13.87</v>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="C243" t="n">
-        <v>9.15</v>
+        <v>9.19</v>
       </c>
       <c r="D243" t="n">
-        <v>187110.14</v>
+        <v>186158.83</v>
       </c>
       <c r="E243" t="n">
-        <v>3.05</v>
+        <v>3.03</v>
       </c>
       <c r="F243" t="n">
         <v>39.2</v>
@@ -6547,10 +6547,10 @@
         <v>1.62</v>
       </c>
       <c r="D244" t="n">
-        <v>183851.6</v>
+        <v>184233.79</v>
       </c>
       <c r="E244" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="F244" t="n">
         <v>21.38</v>
@@ -6566,16 +6566,16 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>2.67</v>
+        <v>2.68</v>
       </c>
       <c r="C245" t="n">
-        <v>27.17</v>
+        <v>27.22</v>
       </c>
       <c r="D245" t="n">
-        <v>20161.29</v>
+        <v>20109.32</v>
       </c>
       <c r="E245" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="F245" t="n">
         <v>10.46</v>
@@ -6591,16 +6591,16 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>5.2</v>
+        <v>5.23</v>
       </c>
       <c r="C246" t="n">
-        <v>27.96</v>
+        <v>28.06</v>
       </c>
       <c r="D246" t="n">
-        <v>12349.36</v>
+        <v>12283.61</v>
       </c>
       <c r="E246" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="F246" t="n">
         <v>16.23</v>
@@ -6616,16 +6616,16 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>3.88</v>
+        <v>3.87</v>
       </c>
       <c r="C247" t="n">
-        <v>13.87</v>
+        <v>13.82</v>
       </c>
       <c r="D247" t="n">
-        <v>12335.15</v>
+        <v>12383.46</v>
       </c>
       <c r="E247" t="n">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="F247" t="n">
         <v>13.37</v>
@@ -6644,10 +6644,10 @@
         <v>0</v>
       </c>
       <c r="C248" t="n">
-        <v>22.62</v>
+        <v>22.59</v>
       </c>
       <c r="D248" t="n">
-        <v>40421.32</v>
+        <v>40475.17</v>
       </c>
       <c r="E248" t="n">
         <v>1.39</v>
@@ -6669,13 +6669,13 @@
         <v>0.09</v>
       </c>
       <c r="C249" t="n">
-        <v>3.5</v>
+        <v>3.51</v>
       </c>
       <c r="D249" t="n">
-        <v>34767.2</v>
+        <v>34613.26</v>
       </c>
       <c r="E249" t="n">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F249" t="n">
         <v>30.53</v>
@@ -6697,7 +6697,7 @@
         <v>39.64</v>
       </c>
       <c r="D250" t="n">
-        <v>20012.03</v>
+        <v>20017.85</v>
       </c>
       <c r="E250" t="n">
         <v>1.26</v>
@@ -6719,13 +6719,13 @@
         <v>0</v>
       </c>
       <c r="C251" t="n">
-        <v>-3.97</v>
+        <v>-3.96</v>
       </c>
       <c r="D251" t="n">
-        <v>134549.5</v>
+        <v>134624.4</v>
       </c>
       <c r="E251" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="F251" t="n">
         <v>33.43</v>
@@ -6744,13 +6744,13 @@
         <v>0</v>
       </c>
       <c r="C252" t="n">
-        <v>6.44</v>
+        <v>6.45</v>
       </c>
       <c r="D252" t="n">
-        <v>35732.61</v>
+        <v>35696.19</v>
       </c>
       <c r="E252" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="F252" t="n">
         <v>32.6</v>
@@ -6769,10 +6769,10 @@
         <v>2</v>
       </c>
       <c r="C253" t="n">
-        <v>8.42</v>
+        <v>8.43</v>
       </c>
       <c r="D253" t="n">
-        <v>77204.34</v>
+        <v>77159.21000000001</v>
       </c>
       <c r="E253" t="n">
         <v>1</v>
@@ -6791,16 +6791,16 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>7.68</v>
+        <v>7.71</v>
       </c>
       <c r="C254" t="n">
-        <v>48.98</v>
+        <v>49.06</v>
       </c>
       <c r="D254" t="n">
-        <v>7439.09</v>
+        <v>7414.98</v>
       </c>
       <c r="E254" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="F254" t="n">
         <v>38.02</v>
@@ -6819,10 +6819,10 @@
         <v>0.83</v>
       </c>
       <c r="C255" t="n">
-        <v>12.62</v>
+        <v>12.6</v>
       </c>
       <c r="D255" t="n">
-        <v>18304.46</v>
+        <v>18333.43</v>
       </c>
       <c r="E255" t="n">
         <v>1.26</v>
@@ -6844,10 +6844,10 @@
         <v>0.75</v>
       </c>
       <c r="C256" t="n">
-        <v>6.37</v>
+        <v>6.38</v>
       </c>
       <c r="D256" t="n">
-        <v>22367.77</v>
+        <v>22355.39</v>
       </c>
       <c r="E256" t="n">
         <v>1.59</v>
@@ -6869,13 +6869,13 @@
         <v>0.24</v>
       </c>
       <c r="C257" t="n">
-        <v>8.59</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="D257" t="n">
-        <v>18520.39</v>
+        <v>18446.87</v>
       </c>
       <c r="E257" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="F257" t="n">
         <v>3.15</v>
@@ -6891,13 +6891,13 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>2.59</v>
+        <v>2.6</v>
       </c>
       <c r="C258" t="n">
-        <v>19.96</v>
+        <v>19.98</v>
       </c>
       <c r="D258" t="n">
-        <v>37772.9</v>
+        <v>37726.63</v>
       </c>
       <c r="E258" t="n">
         <v>2.46</v>
@@ -6919,10 +6919,10 @@
         <v>1.15</v>
       </c>
       <c r="C259" t="n">
-        <v>2.38</v>
+        <v>2.39</v>
       </c>
       <c r="D259" t="n">
-        <v>12845.46</v>
+        <v>12808.28</v>
       </c>
       <c r="E259" t="n">
         <v>1.32</v>
@@ -6941,16 +6941,16 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>3.08</v>
+        <v>3.07</v>
       </c>
       <c r="C260" t="n">
         <v>4.39</v>
       </c>
       <c r="D260" t="n">
-        <v>379700.05</v>
+        <v>380037.06</v>
       </c>
       <c r="E260" t="n">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="F260" t="n">
         <v>7.27</v>
@@ -6972,7 +6972,7 @@
         <v>4</v>
       </c>
       <c r="D261" t="n">
-        <v>11802.92</v>
+        <v>11798.13</v>
       </c>
       <c r="E261" t="n">
         <v>0.26</v>
@@ -6994,10 +6994,10 @@
         <v>2.68</v>
       </c>
       <c r="C262" t="n">
-        <v>-128.9</v>
+        <v>-129.17</v>
       </c>
       <c r="D262" t="n">
-        <v>506212.9</v>
+        <v>505752.62</v>
       </c>
       <c r="E262" t="n">
         <v>0.82</v>
@@ -7016,16 +7016,16 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>4.31</v>
+        <v>4.28</v>
       </c>
       <c r="C263" t="n">
-        <v>27</v>
+        <v>26.88</v>
       </c>
       <c r="D263" t="n">
-        <v>18575.73</v>
+        <v>18693.72</v>
       </c>
       <c r="E263" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="F263" t="n">
         <v>12.25</v>
@@ -7044,10 +7044,10 @@
         <v>2.45</v>
       </c>
       <c r="C264" t="n">
-        <v>22.86</v>
+        <v>22.83</v>
       </c>
       <c r="D264" t="n">
-        <v>44033.45</v>
+        <v>44110.91</v>
       </c>
       <c r="E264" t="n">
         <v>1.05</v>
@@ -7066,16 +7066,16 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>6.38</v>
+        <v>6.45</v>
       </c>
       <c r="C265" t="n">
-        <v>61.87</v>
+        <v>62.12</v>
       </c>
       <c r="D265" t="n">
-        <v>13378.44</v>
+        <v>13233.65</v>
       </c>
       <c r="E265" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="F265" t="n">
         <v>43.43</v>
@@ -7097,10 +7097,10 @@
         <v>-1.63</v>
       </c>
       <c r="D266" t="n">
-        <v>27853.94</v>
+        <v>27766.64</v>
       </c>
       <c r="E266" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="F266" t="n">
         <v>24.64</v>
@@ -7116,16 +7116,16 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>4.41</v>
+        <v>4.4</v>
       </c>
       <c r="C267" t="n">
-        <v>30.76</v>
+        <v>30.71</v>
       </c>
       <c r="D267" t="n">
-        <v>44436.88</v>
+        <v>44541</v>
       </c>
       <c r="E267" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="F267" t="n">
         <v>21.08</v>
@@ -7144,10 +7144,10 @@
         <v>5.36</v>
       </c>
       <c r="C268" t="n">
-        <v>36.75</v>
+        <v>36.74</v>
       </c>
       <c r="D268" t="n">
-        <v>12255.25</v>
+        <v>12264.53</v>
       </c>
       <c r="E268" t="n">
         <v>1.52</v>
@@ -7166,16 +7166,16 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="C269" t="n">
         <v>3.08</v>
       </c>
       <c r="D269" t="n">
-        <v>88836.89999999999</v>
+        <v>88620.84</v>
       </c>
       <c r="E269" t="n">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
       <c r="F269" t="n">
         <v>21.2</v>
@@ -7191,13 +7191,13 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>3.94</v>
+        <v>3.92</v>
       </c>
       <c r="C270" t="n">
-        <v>14.6</v>
+        <v>14.55</v>
       </c>
       <c r="D270" t="n">
-        <v>40315.31</v>
+        <v>40463.59</v>
       </c>
       <c r="E270" t="n">
         <v>1.58</v>
@@ -7216,13 +7216,13 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>6.7</v>
+        <v>6.71</v>
       </c>
       <c r="C271" t="n">
-        <v>46.17</v>
+        <v>46.19</v>
       </c>
       <c r="D271" t="n">
-        <v>37353.72</v>
+        <v>37320.38</v>
       </c>
       <c r="E271" t="n">
         <v>1.04</v>
@@ -7244,13 +7244,13 @@
         <v>0</v>
       </c>
       <c r="C272" t="n">
-        <v>60.79</v>
+        <v>60.72</v>
       </c>
       <c r="D272" t="n">
-        <v>12127.03</v>
+        <v>12164.18</v>
       </c>
       <c r="E272" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="F272" t="n">
         <v>12.46</v>
@@ -7266,16 +7266,16 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>2.96</v>
+        <v>2.95</v>
       </c>
       <c r="C273" t="n">
-        <v>10.11</v>
+        <v>10.08</v>
       </c>
       <c r="D273" t="n">
-        <v>257472.73</v>
+        <v>258403.25</v>
       </c>
       <c r="E273" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="F273" t="n">
         <v>11.67</v>
@@ -7294,13 +7294,13 @@
         <v>2.08</v>
       </c>
       <c r="C274" t="n">
-        <v>37.17</v>
+        <v>37.13</v>
       </c>
       <c r="D274" t="n">
-        <v>32789.22</v>
+        <v>32839.34</v>
       </c>
       <c r="E274" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F274" t="n">
         <v>6.26</v>
@@ -7319,7 +7319,7 @@
       <c r="C275" t="inlineStr"/>
       <c r="D275" t="inlineStr"/>
       <c r="E275" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="F275" t="n">
         <v>9.300000000000001</v>
@@ -7338,13 +7338,13 @@
         <v>0.34</v>
       </c>
       <c r="C276" t="n">
-        <v>32.82</v>
+        <v>32.87</v>
       </c>
       <c r="D276" t="n">
-        <v>18188.13</v>
+        <v>18145.92</v>
       </c>
       <c r="E276" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="F276" t="n">
         <v>14.06</v>
@@ -7363,10 +7363,10 @@
         <v>1.27</v>
       </c>
       <c r="C277" t="n">
-        <v>24.51</v>
+        <v>24.52</v>
       </c>
       <c r="D277" t="n">
-        <v>15722.12</v>
+        <v>15709.79</v>
       </c>
       <c r="E277" t="n">
         <v>0.72</v>
@@ -7388,13 +7388,13 @@
         <v>0.97</v>
       </c>
       <c r="C278" t="n">
-        <v>-8.07</v>
+        <v>-8.039999999999999</v>
       </c>
       <c r="D278" t="n">
-        <v>44232.48</v>
+        <v>44361.71</v>
       </c>
       <c r="E278" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="F278" t="n">
         <v>44.11</v>
@@ -7410,16 +7410,16 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="C279" t="n">
-        <v>22.68</v>
+        <v>22.62</v>
       </c>
       <c r="D279" t="n">
-        <v>19997.59</v>
+        <v>20067.26</v>
       </c>
       <c r="E279" t="n">
-        <v>1.09</v>
+        <v>1.13</v>
       </c>
       <c r="F279" t="n">
         <v>12.91</v>
@@ -7435,16 +7435,16 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>2.16</v>
+        <v>2.17</v>
       </c>
       <c r="C280" t="n">
-        <v>25.41</v>
+        <v>25.48</v>
       </c>
       <c r="D280" t="n">
-        <v>40198.63</v>
+        <v>40042.26</v>
       </c>
       <c r="E280" t="n">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="F280" t="n">
         <v>17.49</v>
@@ -7463,10 +7463,10 @@
         <v>1.2</v>
       </c>
       <c r="C281" t="n">
-        <v>6.01</v>
+        <v>6</v>
       </c>
       <c r="D281" t="n">
-        <v>206300.36</v>
+        <v>206640.14</v>
       </c>
       <c r="E281" t="n">
         <v>1.12</v>
@@ -7488,13 +7488,13 @@
         <v>2.16</v>
       </c>
       <c r="C282" t="n">
-        <v>21.87</v>
+        <v>21.85</v>
       </c>
       <c r="D282" t="n">
-        <v>13127.1</v>
+        <v>13143.14</v>
       </c>
       <c r="E282" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="F282" t="n">
         <v>-1.69</v>
@@ -7510,16 +7510,16 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="C283" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="D283" t="n">
-        <v>696654.4300000001</v>
+        <v>700778.25</v>
       </c>
       <c r="E283" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="F283" t="n">
         <v>11.49</v>
@@ -7538,13 +7538,13 @@
         <v>2.97</v>
       </c>
       <c r="C284" t="n">
-        <v>14.33</v>
+        <v>14.35</v>
       </c>
       <c r="D284" t="n">
-        <v>102909.6</v>
+        <v>102736.8</v>
       </c>
       <c r="E284" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="F284" t="n">
         <v>3.81</v>
@@ -7563,10 +7563,10 @@
         <v>3.52</v>
       </c>
       <c r="C285" t="n">
-        <v>41.75</v>
+        <v>41.73</v>
       </c>
       <c r="D285" t="n">
-        <v>12159.95</v>
+        <v>12170</v>
       </c>
       <c r="E285" t="n">
         <v>1.19</v>
@@ -7585,16 +7585,16 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="C286" t="n">
-        <v>20.8</v>
+        <v>20.79</v>
       </c>
       <c r="D286" t="n">
-        <v>138046.7</v>
+        <v>138193.94</v>
       </c>
       <c r="E286" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="F286" t="n">
         <v>16.21</v>
@@ -7616,10 +7616,10 @@
         <v>-0.1</v>
       </c>
       <c r="D287" t="n">
-        <v>121481.55</v>
+        <v>121033.68</v>
       </c>
       <c r="E287" t="n">
-        <v>2.24</v>
+        <v>2.25</v>
       </c>
       <c r="F287" t="n">
         <v>26.7</v>
@@ -7641,7 +7641,7 @@
         <v>-0.14</v>
       </c>
       <c r="D288" t="n">
-        <v>59451.27</v>
+        <v>59341.77</v>
       </c>
       <c r="E288" t="n">
         <v>1.8</v>
@@ -7660,16 +7660,16 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>2.18</v>
+        <v>2.19</v>
       </c>
       <c r="C289" t="n">
-        <v>-13.07</v>
+        <v>-13.16</v>
       </c>
       <c r="D289" t="n">
-        <v>19668.83</v>
+        <v>19549.6</v>
       </c>
       <c r="E289" t="n">
-        <v>2.43</v>
+        <v>2.42</v>
       </c>
       <c r="F289" t="n">
         <v>17.62</v>
@@ -7685,16 +7685,16 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="C290" t="n">
-        <v>19.18</v>
+        <v>19.13</v>
       </c>
       <c r="D290" t="n">
-        <v>41473.74</v>
+        <v>41622.72</v>
       </c>
       <c r="E290" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="F290" t="n">
         <v>6.8</v>
@@ -7716,7 +7716,7 @@
         <v>18.35</v>
       </c>
       <c r="D291" t="n">
-        <v>14747.19</v>
+        <v>14739.18</v>
       </c>
       <c r="E291" t="n">
         <v>1.47</v>
@@ -7735,16 +7735,16 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>10.35</v>
+        <v>10.38</v>
       </c>
       <c r="C292" t="n">
-        <v>22.77</v>
+        <v>22.83</v>
       </c>
       <c r="D292" t="n">
-        <v>31371.3</v>
+        <v>31269.24</v>
       </c>
       <c r="E292" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="F292" t="n">
         <v>4.74</v>
@@ -7763,10 +7763,10 @@
         <v>0</v>
       </c>
       <c r="C293" t="n">
-        <v>9.17</v>
+        <v>9.18</v>
       </c>
       <c r="D293" t="n">
-        <v>20731.63</v>
+        <v>20695.78</v>
       </c>
       <c r="E293" t="n">
         <v>1</v>
@@ -7788,13 +7788,13 @@
         <v>0.5</v>
       </c>
       <c r="C294" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="D294" t="n">
-        <v>427846.71</v>
+        <v>428743.37</v>
       </c>
       <c r="E294" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="F294" t="n">
         <v>11.84</v>
@@ -7813,10 +7813,10 @@
         <v>3.72</v>
       </c>
       <c r="C295" t="n">
-        <v>23.28</v>
+        <v>23.31</v>
       </c>
       <c r="D295" t="n">
-        <v>14517.03</v>
+        <v>14491.63</v>
       </c>
       <c r="E295" t="n">
         <v>1.34</v>
@@ -7838,10 +7838,10 @@
         <v>0.42</v>
       </c>
       <c r="C296" t="n">
-        <v>12.18</v>
+        <v>12.16</v>
       </c>
       <c r="D296" t="n">
-        <v>77125.86</v>
+        <v>77289.7</v>
       </c>
       <c r="E296" t="n">
         <v>0.93</v>
@@ -7860,16 +7860,16 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="C297" t="n">
-        <v>15.43</v>
+        <v>15.35</v>
       </c>
       <c r="D297" t="n">
-        <v>16402.97</v>
+        <v>16509.98</v>
       </c>
       <c r="E297" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="F297" t="n">
         <v>35.15</v>
@@ -7888,10 +7888,10 @@
         <v>2.14</v>
       </c>
       <c r="C298" t="n">
-        <v>17.91</v>
+        <v>17.89</v>
       </c>
       <c r="D298" t="n">
-        <v>211367.64</v>
+        <v>211725.97</v>
       </c>
       <c r="E298" t="n">
         <v>1.33</v>
@@ -7910,16 +7910,16 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="C299" t="n">
-        <v>12.14</v>
+        <v>12.21</v>
       </c>
       <c r="D299" t="n">
-        <v>46058.63</v>
+        <v>45791.35</v>
       </c>
       <c r="E299" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="F299" t="n">
         <v>14.81</v>
@@ -7938,13 +7938,13 @@
         <v>0.43</v>
       </c>
       <c r="C300" t="n">
-        <v>3.73</v>
+        <v>3.75</v>
       </c>
       <c r="D300" t="n">
-        <v>67470.96000000001</v>
+        <v>67247.92</v>
       </c>
       <c r="E300" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="F300" t="n">
         <v>7.85</v>
@@ -7963,13 +7963,13 @@
         <v>0.7</v>
       </c>
       <c r="C301" t="n">
-        <v>5.96</v>
+        <v>5.98</v>
       </c>
       <c r="D301" t="n">
-        <v>73743.46000000001</v>
+        <v>73481.49000000001</v>
       </c>
       <c r="E301" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="F301" t="n">
         <v>22.89</v>
@@ -7988,10 +7988,10 @@
         <v>2.16</v>
       </c>
       <c r="C302" t="n">
-        <v>15.34</v>
+        <v>15.35</v>
       </c>
       <c r="D302" t="n">
-        <v>100059.85</v>
+        <v>100025.83</v>
       </c>
       <c r="E302" t="n">
         <v>1.06</v>
@@ -8010,13 +8010,13 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>3.2</v>
+        <v>3.19</v>
       </c>
       <c r="C303" t="n">
-        <v>13.37</v>
+        <v>13.36</v>
       </c>
       <c r="D303" t="n">
-        <v>113098.81</v>
+        <v>113238.54</v>
       </c>
       <c r="E303" t="n">
         <v>0.9</v>
@@ -8035,16 +8035,16 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>3.54</v>
+        <v>3.56</v>
       </c>
       <c r="C304" t="n">
-        <v>-2.39</v>
+        <v>-2.4</v>
       </c>
       <c r="D304" t="n">
-        <v>50297.31</v>
+        <v>50096.34</v>
       </c>
       <c r="E304" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="F304" t="n">
         <v>17.68</v>
@@ -8063,10 +8063,10 @@
         <v>0</v>
       </c>
       <c r="C305" t="n">
-        <v>-2.38</v>
+        <v>-2.39</v>
       </c>
       <c r="D305" t="n">
-        <v>1209968.73</v>
+        <v>1205008.6</v>
       </c>
       <c r="E305" t="n">
         <v>4.76</v>
@@ -8088,10 +8088,10 @@
         <v>0.02</v>
       </c>
       <c r="C306" t="n">
-        <v>61.05</v>
+        <v>61.17</v>
       </c>
       <c r="D306" t="n">
-        <v>17915.68</v>
+        <v>17824.7</v>
       </c>
       <c r="E306" t="n">
         <v>1.42</v>
@@ -8113,13 +8113,13 @@
         <v>0</v>
       </c>
       <c r="C307" t="n">
-        <v>23.96</v>
+        <v>23.86</v>
       </c>
       <c r="D307" t="n">
-        <v>8267.57</v>
+        <v>8311.51</v>
       </c>
       <c r="E307" t="n">
-        <v>2.23</v>
+        <v>2.3</v>
       </c>
       <c r="F307" t="n">
         <v>28.42</v>
@@ -8135,16 +8135,16 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>2.37</v>
+        <v>2.36</v>
       </c>
       <c r="C308" t="n">
-        <v>20.24</v>
+        <v>20.17</v>
       </c>
       <c r="D308" t="n">
-        <v>17647.68</v>
+        <v>17718.73</v>
       </c>
       <c r="E308" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="F308" t="n">
         <v>9.06</v>
@@ -8163,10 +8163,10 @@
         <v>1.23</v>
       </c>
       <c r="C309" t="n">
-        <v>-6.27</v>
+        <v>-6.26</v>
       </c>
       <c r="D309" t="n">
-        <v>8587</v>
+        <v>8591.549999999999</v>
       </c>
       <c r="E309" t="n">
         <v>4.26</v>
@@ -8188,13 +8188,13 @@
         <v>0.48</v>
       </c>
       <c r="C310" t="n">
-        <v>12.05</v>
+        <v>12.09</v>
       </c>
       <c r="D310" t="n">
-        <v>33323.65</v>
+        <v>33183.47</v>
       </c>
       <c r="E310" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="F310" t="n">
         <v>20.16</v>
@@ -8210,13 +8210,13 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="C311" t="n">
-        <v>11.13</v>
+        <v>11.12</v>
       </c>
       <c r="D311" t="n">
-        <v>96422.16</v>
+        <v>96508.25999999999</v>
       </c>
       <c r="E311" t="n">
         <v>1.11</v>
@@ -8241,10 +8241,10 @@
         <v>16.42</v>
       </c>
       <c r="D312" t="n">
-        <v>52299.04</v>
+        <v>52312.86</v>
       </c>
       <c r="E312" t="n">
-        <v>2.83</v>
+        <v>2.84</v>
       </c>
       <c r="F312" t="n">
         <v>26.31</v>
@@ -8263,13 +8263,13 @@
         <v>0</v>
       </c>
       <c r="C313" t="n">
-        <v>-4.73</v>
+        <v>-4.72</v>
       </c>
       <c r="D313" t="n">
-        <v>58304.35</v>
+        <v>58424.48</v>
       </c>
       <c r="E313" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="F313" t="n">
         <v>17.4</v>
@@ -8285,16 +8285,16 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>9.23</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C314" t="n">
-        <v>23.97</v>
+        <v>23.92</v>
       </c>
       <c r="D314" t="n">
-        <v>71532.91</v>
+        <v>71709.77</v>
       </c>
       <c r="E314" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="F314" t="n">
         <v>-1.88</v>
@@ -8313,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="C315" t="n">
-        <v>-27.97</v>
+        <v>-27.95</v>
       </c>
       <c r="D315" t="n">
-        <v>22755.43</v>
+        <v>22767.2</v>
       </c>
       <c r="E315" t="n">
         <v>2.06</v>
@@ -8335,16 +8335,16 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="C316" t="n">
-        <v>22.87</v>
+        <v>22.84</v>
       </c>
       <c r="D316" t="n">
-        <v>10363.72</v>
+        <v>10378.98</v>
       </c>
       <c r="E316" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="F316" t="n">
         <v>-2.67</v>
@@ -8363,10 +8363,10 @@
         <v>2.06</v>
       </c>
       <c r="C317" t="n">
-        <v>21.52</v>
+        <v>21.53</v>
       </c>
       <c r="D317" t="n">
-        <v>62199.36</v>
+        <v>62177.28</v>
       </c>
       <c r="E317" t="n">
         <v>2</v>
@@ -8388,13 +8388,13 @@
         <v>0.4</v>
       </c>
       <c r="C318" t="n">
-        <v>-2.17</v>
+        <v>-2.18</v>
       </c>
       <c r="D318" t="n">
-        <v>34616.58</v>
+        <v>34381.99</v>
       </c>
       <c r="E318" t="n">
-        <v>3.85</v>
+        <v>3.88</v>
       </c>
       <c r="F318" t="n">
         <v>39.97</v>
@@ -8416,10 +8416,10 @@
         <v>5.59</v>
       </c>
       <c r="D319" t="n">
-        <v>317107.13</v>
+        <v>317614.43</v>
       </c>
       <c r="E319" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="F319" t="n">
         <v>14.78</v>
@@ -8438,13 +8438,13 @@
         <v>0</v>
       </c>
       <c r="C320" t="n">
-        <v>-34.26</v>
+        <v>-34.04</v>
       </c>
       <c r="D320" t="n">
-        <v>34103.3</v>
+        <v>34265</v>
       </c>
       <c r="E320" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="F320" t="n">
         <v>34.73</v>
@@ -8463,10 +8463,10 @@
         <v>1.54</v>
       </c>
       <c r="C321" t="n">
-        <v>28.63</v>
+        <v>28.62</v>
       </c>
       <c r="D321" t="n">
-        <v>14321.62</v>
+        <v>14331.18</v>
       </c>
       <c r="E321" t="n">
         <v>1.37</v>
@@ -8488,10 +8488,10 @@
         <v>3.82</v>
       </c>
       <c r="C322" t="n">
-        <v>33.18</v>
+        <v>33.19</v>
       </c>
       <c r="D322" t="n">
-        <v>141418.84</v>
+        <v>141370.03</v>
       </c>
       <c r="E322" t="n">
         <v>1.28</v>
@@ -8513,10 +8513,10 @@
         <v>0.8</v>
       </c>
       <c r="C323" t="n">
-        <v>7.95</v>
+        <v>7.98</v>
       </c>
       <c r="D323" t="n">
-        <v>46824.82</v>
+        <v>46678.49</v>
       </c>
       <c r="E323" t="n">
         <v>2.38</v>
@@ -8541,10 +8541,10 @@
         <v>-1.04</v>
       </c>
       <c r="D324" t="n">
-        <v>3090225.51</v>
+        <v>3086212.39</v>
       </c>
       <c r="E324" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="F324" t="n">
         <v>17.96</v>
@@ -8563,13 +8563,13 @@
         <v>0.99</v>
       </c>
       <c r="C325" t="n">
-        <v>8.859999999999999</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="D325" t="n">
-        <v>53775.87</v>
+        <v>53650.25</v>
       </c>
       <c r="E325" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="F325" t="n">
         <v>13.2</v>
@@ -8585,16 +8585,16 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>3.85</v>
+        <v>3.88</v>
       </c>
       <c r="C326" t="n">
-        <v>-246.25</v>
+        <v>-253.45</v>
       </c>
       <c r="D326" t="n">
-        <v>22895.33</v>
+        <v>22707.58</v>
       </c>
       <c r="E326" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="F326" t="n">
         <v>19.33</v>
@@ -8613,10 +8613,10 @@
         <v>0</v>
       </c>
       <c r="C327" t="n">
-        <v>22.83</v>
+        <v>22.82</v>
       </c>
       <c r="D327" t="n">
-        <v>10052.97</v>
+        <v>10054.33</v>
       </c>
       <c r="E327" t="n">
         <v>2.23</v>
@@ -8638,13 +8638,13 @@
         <v>0</v>
       </c>
       <c r="C328" t="n">
-        <v>7.18</v>
+        <v>7.17</v>
       </c>
       <c r="D328" t="n">
-        <v>26296.05</v>
+        <v>26363.35</v>
       </c>
       <c r="E328" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="F328" t="n">
         <v>17.2</v>
@@ -8660,13 +8660,13 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="C329" t="n">
-        <v>3.57</v>
+        <v>3.58</v>
       </c>
       <c r="D329" t="n">
-        <v>94460.94</v>
+        <v>94098.60000000001</v>
       </c>
       <c r="E329" t="n">
         <v>1.72</v>
@@ -8688,10 +8688,10 @@
         <v>0</v>
       </c>
       <c r="C330" t="n">
-        <v>65.47</v>
+        <v>65.48999999999999</v>
       </c>
       <c r="D330" t="n">
-        <v>7014.43</v>
+        <v>7010.21</v>
       </c>
       <c r="E330" t="n">
         <v>2.27</v>
@@ -8713,10 +8713,10 @@
         <v>1.17</v>
       </c>
       <c r="C331" t="n">
-        <v>23.76</v>
+        <v>23.78</v>
       </c>
       <c r="D331" t="n">
-        <v>32820.63</v>
+        <v>32788.9</v>
       </c>
       <c r="E331" t="n">
         <v>0.88</v>
@@ -8735,16 +8735,16 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="C332" t="n">
-        <v>10.35</v>
+        <v>10.37</v>
       </c>
       <c r="D332" t="n">
-        <v>15129.77</v>
+        <v>15095.56</v>
       </c>
       <c r="E332" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="F332" t="n">
         <v>18.14</v>
@@ -8760,16 +8760,16 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>3.26</v>
+        <v>3.25</v>
       </c>
       <c r="C333" t="n">
-        <v>37.8</v>
+        <v>37.72</v>
       </c>
       <c r="D333" t="n">
-        <v>116039.76</v>
+        <v>116454.62</v>
       </c>
       <c r="E333" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="F333" t="n">
         <v>18.48</v>
@@ -8791,7 +8791,7 @@
         <v>8.56</v>
       </c>
       <c r="D334" t="n">
-        <v>26613.08</v>
+        <v>26621.01</v>
       </c>
       <c r="E334" t="n">
         <v>2.03</v>
@@ -8813,13 +8813,13 @@
         <v>0</v>
       </c>
       <c r="C335" t="n">
-        <v>3.9</v>
+        <v>3.91</v>
       </c>
       <c r="D335" t="n">
-        <v>242345.37</v>
+        <v>241414.92</v>
       </c>
       <c r="E335" t="n">
-        <v>2.66</v>
+        <v>2.67</v>
       </c>
       <c r="F335" t="n">
         <v>20.97</v>
@@ -8835,16 +8835,16 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>4.15</v>
+        <v>4.13</v>
       </c>
       <c r="C336" t="n">
-        <v>51.71</v>
+        <v>51.64</v>
       </c>
       <c r="D336" t="n">
-        <v>10532.3</v>
+        <v>10561.15</v>
       </c>
       <c r="E336" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="F336" t="n">
         <v>8.35</v>
@@ -8866,10 +8866,10 @@
         <v>0.89</v>
       </c>
       <c r="D337" t="n">
-        <v>163234.6</v>
+        <v>164230.4</v>
       </c>
       <c r="E337" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="F337" t="n">
         <v>2.19</v>
@@ -8885,16 +8885,16 @@
         </is>
       </c>
       <c r="B338" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="C338" t="n">
-        <v>15.9</v>
+        <v>15.96</v>
       </c>
       <c r="D338" t="n">
-        <v>68044.53</v>
+        <v>67751.82000000001</v>
       </c>
       <c r="E338" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="F338" t="n">
         <v>0.1</v>
@@ -8916,10 +8916,10 @@
         <v>-1.64</v>
       </c>
       <c r="D339" t="n">
-        <v>160887.47</v>
+        <v>161121.89</v>
       </c>
       <c r="E339" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="F339" t="n">
         <v>34.69</v>
@@ -8935,16 +8935,16 @@
         </is>
       </c>
       <c r="B340" t="n">
-        <v>2.8</v>
+        <v>2.79</v>
       </c>
       <c r="C340" t="n">
-        <v>39.9</v>
+        <v>39.85</v>
       </c>
       <c r="D340" t="n">
-        <v>11857.97</v>
+        <v>11882.08</v>
       </c>
       <c r="E340" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="F340" t="n">
         <v>24.8</v>
@@ -8963,13 +8963,13 @@
         <v>2.14</v>
       </c>
       <c r="C341" t="n">
-        <v>21.43</v>
+        <v>21.39</v>
       </c>
       <c r="D341" t="n">
-        <v>57235.02</v>
+        <v>57356.89</v>
       </c>
       <c r="E341" t="n">
-        <v>2.37</v>
+        <v>2.36</v>
       </c>
       <c r="F341" t="n">
         <v>16.57</v>
@@ -8988,10 +8988,10 @@
         <v>2.25</v>
       </c>
       <c r="C342" t="n">
-        <v>-2.06</v>
+        <v>-2.05</v>
       </c>
       <c r="D342" t="n">
-        <v>19167.98</v>
+        <v>19219.92</v>
       </c>
       <c r="E342" t="n">
         <v>0.99</v>
@@ -9010,16 +9010,16 @@
         </is>
       </c>
       <c r="B343" t="n">
-        <v>4.76</v>
+        <v>4.77</v>
       </c>
       <c r="C343" t="n">
-        <v>216.08</v>
+        <v>215.19</v>
       </c>
       <c r="D343" t="n">
-        <v>16746.49</v>
+        <v>16687</v>
       </c>
       <c r="E343" t="n">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="F343" t="n">
         <v>30.59</v>
@@ -9041,7 +9041,7 @@
         <v>-0.63</v>
       </c>
       <c r="D344" t="n">
-        <v>45861.27</v>
+        <v>45762.93</v>
       </c>
       <c r="E344" t="n">
         <v>1.87</v>
@@ -9066,10 +9066,10 @@
         <v>-0.07000000000000001</v>
       </c>
       <c r="D345" t="n">
-        <v>1788644.1</v>
+        <v>1781635.63</v>
       </c>
       <c r="E345" t="n">
-        <v>2.1</v>
+        <v>2.11</v>
       </c>
       <c r="F345" t="n">
         <v>27.31</v>
@@ -9088,13 +9088,13 @@
         <v>0</v>
       </c>
       <c r="C346" t="n">
-        <v>-9.779999999999999</v>
+        <v>-9.68</v>
       </c>
       <c r="D346" t="n">
-        <v>24127.1</v>
+        <v>24336.11</v>
       </c>
       <c r="E346" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="F346" t="n">
         <v>30.94</v>
@@ -9110,13 +9110,13 @@
         </is>
       </c>
       <c r="B347" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="C347" t="n">
-        <v>13.19</v>
+        <v>13.22</v>
       </c>
       <c r="D347" t="n">
-        <v>15628.8</v>
+        <v>15585.9</v>
       </c>
       <c r="E347" t="n">
         <v>1.93</v>
@@ -9135,13 +9135,13 @@
         </is>
       </c>
       <c r="B348" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="C348" t="n">
-        <v>13.71</v>
+        <v>13.73</v>
       </c>
       <c r="D348" t="n">
-        <v>14942.45</v>
+        <v>14910.99</v>
       </c>
       <c r="E348" t="n">
         <v>1.89</v>
@@ -9160,16 +9160,16 @@
         </is>
       </c>
       <c r="B349" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="C349" t="n">
-        <v>10.95</v>
+        <v>10.98</v>
       </c>
       <c r="D349" t="n">
-        <v>61593.92</v>
+        <v>61409.7</v>
       </c>
       <c r="E349" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="F349" t="n">
         <v>14.68</v>
@@ -9188,10 +9188,10 @@
         <v>5.21</v>
       </c>
       <c r="C350" t="n">
-        <v>34.6</v>
+        <v>34.63</v>
       </c>
       <c r="D350" t="n">
-        <v>34834.14</v>
+        <v>34781.31</v>
       </c>
       <c r="E350" t="n">
         <v>1.31</v>
@@ -9216,7 +9216,7 @@
         <v>-0.76</v>
       </c>
       <c r="D351" t="n">
-        <v>46865.56</v>
+        <v>46820.82</v>
       </c>
       <c r="E351" t="n">
         <v>1.72</v>
@@ -9235,13 +9235,13 @@
         </is>
       </c>
       <c r="B352" t="n">
-        <v>5.33</v>
+        <v>5.32</v>
       </c>
       <c r="C352" t="n">
-        <v>30.09</v>
+        <v>30.07</v>
       </c>
       <c r="D352" t="n">
-        <v>31368.12</v>
+        <v>31399.42</v>
       </c>
       <c r="E352" t="n">
         <v>1.3</v>
@@ -9266,7 +9266,7 @@
         <v>12.51</v>
       </c>
       <c r="D353" t="n">
-        <v>17525.44</v>
+        <v>17527.47</v>
       </c>
       <c r="E353" t="n">
         <v>1.26</v>
@@ -9288,10 +9288,10 @@
         <v>0</v>
       </c>
       <c r="C354" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="D354" t="n">
-        <v>35127.23</v>
+        <v>34952.29</v>
       </c>
       <c r="E354" t="n">
         <v>2.85</v>
@@ -9313,10 +9313,10 @@
         <v>1.17</v>
       </c>
       <c r="C355" t="n">
-        <v>21.3</v>
+        <v>21.31</v>
       </c>
       <c r="D355" t="n">
-        <v>314735.14</v>
+        <v>314396.01</v>
       </c>
       <c r="E355" t="n">
         <v>1.29</v>
@@ -9338,13 +9338,13 @@
         <v>0</v>
       </c>
       <c r="C356" t="n">
-        <v>9.17</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="D356" t="n">
-        <v>63761.78</v>
+        <v>63998.72</v>
       </c>
       <c r="E356" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="F356" t="n">
         <v>8.470000000000001</v>
@@ -9363,10 +9363,10 @@
         <v>1.44</v>
       </c>
       <c r="C357" t="n">
-        <v>13.64</v>
+        <v>13.66</v>
       </c>
       <c r="D357" t="n">
-        <v>37443.09</v>
+        <v>37377.61</v>
       </c>
       <c r="E357" t="n">
         <v>0.95</v>
@@ -9385,16 +9385,16 @@
         </is>
       </c>
       <c r="B358" t="n">
-        <v>2.26</v>
+        <v>2.27</v>
       </c>
       <c r="C358" t="n">
-        <v>27.57</v>
+        <v>27.61</v>
       </c>
       <c r="D358" t="n">
-        <v>52335.8</v>
+        <v>52232.31</v>
       </c>
       <c r="E358" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="F358" t="n">
         <v>-7.58</v>
@@ -9416,10 +9416,10 @@
         <v>-2.84</v>
       </c>
       <c r="D359" t="n">
-        <v>114528.82</v>
+        <v>114678.35</v>
       </c>
       <c r="E359" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="F359" t="n">
         <v>32.12</v>
@@ -9435,16 +9435,16 @@
         </is>
       </c>
       <c r="B360" t="n">
-        <v>7.84</v>
+        <v>7.9</v>
       </c>
       <c r="C360" t="n">
-        <v>62.55</v>
+        <v>62.75</v>
       </c>
       <c r="D360" t="n">
-        <v>8788</v>
+        <v>8716.5</v>
       </c>
       <c r="E360" t="n">
-        <v>3.17</v>
+        <v>3.11</v>
       </c>
       <c r="F360" t="n">
         <v>19.12</v>
@@ -9463,13 +9463,13 @@
         <v>0.58</v>
       </c>
       <c r="C361" t="n">
-        <v>-3.06</v>
+        <v>-3.07</v>
       </c>
       <c r="D361" t="n">
-        <v>11136.5</v>
+        <v>11093.1</v>
       </c>
       <c r="E361" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="F361" t="n">
         <v>-23.32</v>
@@ -9491,7 +9491,7 @@
         <v>-1.64</v>
       </c>
       <c r="D362" t="n">
-        <v>44036.88</v>
+        <v>44017.05</v>
       </c>
       <c r="E362" t="n">
         <v>0.8</v>
@@ -9513,10 +9513,10 @@
         <v>2.74</v>
       </c>
       <c r="C363" t="n">
-        <v>-18.48</v>
+        <v>-18.49</v>
       </c>
       <c r="D363" t="n">
-        <v>55506.43</v>
+        <v>55480.26</v>
       </c>
       <c r="E363" t="n">
         <v>1.09</v>
@@ -9538,13 +9538,13 @@
         <v>0</v>
       </c>
       <c r="C364" t="n">
-        <v>61.73</v>
+        <v>61.65</v>
       </c>
       <c r="D364" t="n">
-        <v>32599.67</v>
+        <v>32709</v>
       </c>
       <c r="E364" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="F364" t="n">
         <v>11.25</v>
@@ -9560,16 +9560,16 @@
         </is>
       </c>
       <c r="B365" t="n">
-        <v>6.75</v>
+        <v>6.76</v>
       </c>
       <c r="C365" t="n">
-        <v>40.86</v>
+        <v>40.9</v>
       </c>
       <c r="D365" t="n">
-        <v>9601.77</v>
+        <v>9588.1</v>
       </c>
       <c r="E365" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="F365" t="n">
         <v>26.3</v>
@@ -9585,16 +9585,16 @@
         </is>
       </c>
       <c r="B366" t="n">
-        <v>3.67</v>
+        <v>3.66</v>
       </c>
       <c r="C366" t="n">
-        <v>40.45</v>
+        <v>40.38</v>
       </c>
       <c r="D366" t="n">
-        <v>29406.99</v>
+        <v>29491.98</v>
       </c>
       <c r="E366" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="F366" t="n">
         <v>1.96</v>
@@ -9613,13 +9613,13 @@
         <v>2.63</v>
       </c>
       <c r="C367" t="n">
-        <v>13.37</v>
+        <v>13.33</v>
       </c>
       <c r="D367" t="n">
-        <v>234255.23</v>
+        <v>234929.97</v>
       </c>
       <c r="E367" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="F367" t="n">
         <v>4.49</v>
@@ -9635,16 +9635,16 @@
         </is>
       </c>
       <c r="B368" t="n">
-        <v>5.81</v>
+        <v>5.78</v>
       </c>
       <c r="C368" t="n">
-        <v>9.539999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="D368" t="n">
-        <v>154687.66</v>
+        <v>155366.65</v>
       </c>
       <c r="E368" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="F368" t="n">
         <v>-6.94</v>
@@ -9660,16 +9660,16 @@
         </is>
       </c>
       <c r="B369" t="n">
-        <v>3.32</v>
+        <v>3.34</v>
       </c>
       <c r="C369" t="n">
-        <v>-3.06</v>
+        <v>-3.08</v>
       </c>
       <c r="D369" t="n">
-        <v>19327.81</v>
+        <v>19221.89</v>
       </c>
       <c r="E369" t="n">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F369" t="n">
         <v>16.75</v>
@@ -9685,16 +9685,16 @@
         </is>
       </c>
       <c r="B370" t="n">
-        <v>2.43</v>
+        <v>2.42</v>
       </c>
       <c r="C370" t="n">
-        <v>7.01</v>
+        <v>6.99</v>
       </c>
       <c r="D370" t="n">
-        <v>370058.38</v>
+        <v>371133.14</v>
       </c>
       <c r="E370" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="F370" t="n">
         <v>1.65</v>
@@ -9713,10 +9713,10 @@
         <v>0.24</v>
       </c>
       <c r="C371" t="n">
-        <v>5.6</v>
+        <v>5.59</v>
       </c>
       <c r="D371" t="n">
-        <v>106665.08</v>
+        <v>106717.75</v>
       </c>
       <c r="E371" t="n">
         <v>1.21</v>
@@ -9738,13 +9738,13 @@
         <v>1.06</v>
       </c>
       <c r="C372" t="n">
-        <v>15.74</v>
+        <v>15.72</v>
       </c>
       <c r="D372" t="n">
-        <v>66500.08</v>
+        <v>66588.7</v>
       </c>
       <c r="E372" t="n">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="F372" t="n">
         <v>25.47</v>
@@ -9760,16 +9760,16 @@
         </is>
       </c>
       <c r="B373" t="n">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="C373" t="n">
-        <v>2.79</v>
+        <v>2.8</v>
       </c>
       <c r="D373" t="n">
-        <v>22830.05</v>
+        <v>22781.92</v>
       </c>
       <c r="E373" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="F373" t="n">
         <v>48.66</v>
@@ -9785,13 +9785,13 @@
         </is>
       </c>
       <c r="B374" t="n">
-        <v>2.78</v>
+        <v>2.79</v>
       </c>
       <c r="C374" t="n">
-        <v>13.31</v>
+        <v>13.35</v>
       </c>
       <c r="D374" t="n">
-        <v>15124.05</v>
+        <v>15080.13</v>
       </c>
       <c r="E374" t="n">
         <v>1.3</v>
@@ -9813,13 +9813,13 @@
         <v>2.04</v>
       </c>
       <c r="C375" t="n">
-        <v>18.87</v>
+        <v>18.91</v>
       </c>
       <c r="D375" t="n">
-        <v>122412.3</v>
+        <v>122056.57</v>
       </c>
       <c r="E375" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="F375" t="n">
         <v>30.49</v>
@@ -9835,16 +9835,16 @@
         </is>
       </c>
       <c r="B376" t="n">
-        <v>5.61</v>
+        <v>5.6</v>
       </c>
       <c r="C376" t="n">
-        <v>22.54</v>
+        <v>22.51</v>
       </c>
       <c r="D376" t="n">
-        <v>139302.56</v>
+        <v>139504.09</v>
       </c>
       <c r="E376" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="F376" t="n">
         <v>4.78</v>
@@ -9860,16 +9860,16 @@
         </is>
       </c>
       <c r="B377" t="n">
-        <v>4.52</v>
+        <v>4.54</v>
       </c>
       <c r="C377" t="n">
-        <v>26.98</v>
+        <v>27.05</v>
       </c>
       <c r="D377" t="n">
-        <v>59580.99</v>
+        <v>59358.1</v>
       </c>
       <c r="E377" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="F377" t="n">
         <v>35.74</v>
@@ -9885,16 +9885,16 @@
         </is>
       </c>
       <c r="B378" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="C378" t="n">
-        <v>12.72</v>
+        <v>12.74</v>
       </c>
       <c r="D378" t="n">
-        <v>12477.59</v>
+        <v>12447.01</v>
       </c>
       <c r="E378" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="F378" t="n">
         <v>13.58</v>
@@ -9910,16 +9910,16 @@
         </is>
       </c>
       <c r="B379" t="n">
-        <v>4.94</v>
+        <v>4.92</v>
       </c>
       <c r="C379" t="n">
-        <v>53.62</v>
+        <v>53.52</v>
       </c>
       <c r="D379" t="n">
-        <v>7674.3</v>
+        <v>7704.86</v>
       </c>
       <c r="E379" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="F379" t="n">
         <v>-2.49</v>
@@ -9938,10 +9938,10 @@
         <v>0</v>
       </c>
       <c r="C380" t="n">
-        <v>5.42</v>
+        <v>5.4</v>
       </c>
       <c r="D380" t="n">
-        <v>13239.42</v>
+        <v>13289.92</v>
       </c>
       <c r="E380" t="n">
         <v>1.61</v>
@@ -9966,7 +9966,7 @@
         <v>9.52</v>
       </c>
       <c r="D381" t="n">
-        <v>15353.31</v>
+        <v>15350.37</v>
       </c>
       <c r="E381" t="n">
         <v>1.77</v>
@@ -9988,13 +9988,13 @@
         <v>1.8</v>
       </c>
       <c r="C382" t="n">
-        <v>12.32</v>
+        <v>12.3</v>
       </c>
       <c r="D382" t="n">
-        <v>33172.34</v>
+        <v>33226.58</v>
       </c>
       <c r="E382" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="F382" t="n">
         <v>17.67</v>
@@ -10010,16 +10010,16 @@
         </is>
       </c>
       <c r="B383" t="n">
-        <v>4.09</v>
+        <v>4.06</v>
       </c>
       <c r="C383" t="n">
-        <v>41.98</v>
+        <v>41.83</v>
       </c>
       <c r="D383" t="n">
-        <v>19262.82</v>
+        <v>19376.97</v>
       </c>
       <c r="E383" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="F383" t="n">
         <v>14.36</v>
@@ -10035,16 +10035,16 @@
         </is>
       </c>
       <c r="B384" t="n">
-        <v>4.62</v>
+        <v>4.63</v>
       </c>
       <c r="C384" t="n">
-        <v>20.89</v>
+        <v>20.93</v>
       </c>
       <c r="D384" t="n">
-        <v>39348.31</v>
+        <v>39249.5</v>
       </c>
       <c r="E384" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="F384" t="n">
         <v>15.56</v>
@@ -10060,16 +10060,16 @@
         </is>
       </c>
       <c r="B385" t="n">
-        <v>7.9</v>
+        <v>7.93</v>
       </c>
       <c r="C385" t="n">
-        <v>10.97</v>
+        <v>11</v>
       </c>
       <c r="D385" t="n">
-        <v>49451.21</v>
+        <v>49316.25</v>
       </c>
       <c r="E385" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="F385" t="n">
         <v>19</v>
@@ -10085,16 +10085,16 @@
         </is>
       </c>
       <c r="B386" t="n">
-        <v>2.79</v>
+        <v>2.8</v>
       </c>
       <c r="C386" t="n">
-        <v>15.21</v>
+        <v>15.22</v>
       </c>
       <c r="D386" t="n">
-        <v>67384.33</v>
+        <v>67312.12</v>
       </c>
       <c r="E386" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="F386" t="n">
         <v>17.53</v>
@@ -10116,10 +10116,10 @@
         <v>7.02</v>
       </c>
       <c r="D387" t="n">
-        <v>21211.63</v>
+        <v>21218.76</v>
       </c>
       <c r="E387" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="F387" t="n">
         <v>26.5</v>
@@ -10141,7 +10141,7 @@
         <v>10.5</v>
       </c>
       <c r="D388" t="n">
-        <v>30249.83</v>
+        <v>30241.26</v>
       </c>
       <c r="E388" t="n">
         <v>1.63</v>
@@ -10160,13 +10160,13 @@
         </is>
       </c>
       <c r="B389" t="n">
-        <v>11.56</v>
+        <v>11.58</v>
       </c>
       <c r="C389" t="n">
-        <v>8.06</v>
+        <v>8.07</v>
       </c>
       <c r="D389" t="n">
-        <v>54215.11</v>
+        <v>54146.66</v>
       </c>
       <c r="E389" t="n">
         <v>1.32</v>
@@ -10191,10 +10191,10 @@
         <v>0.39</v>
       </c>
       <c r="D390" t="n">
-        <v>68199.75999999999</v>
+        <v>68262.24000000001</v>
       </c>
       <c r="E390" t="n">
-        <v>4</v>
+        <v>4.01</v>
       </c>
       <c r="F390" t="n">
         <v>14.13</v>
@@ -10213,10 +10213,10 @@
         <v>2.03</v>
       </c>
       <c r="C391" t="n">
-        <v>2.7</v>
+        <v>2.71</v>
       </c>
       <c r="D391" t="n">
-        <v>170664.8</v>
+        <v>170553.41</v>
       </c>
       <c r="E391" t="n">
         <v>2.19</v>
@@ -10238,13 +10238,13 @@
         <v>0</v>
       </c>
       <c r="C392" t="n">
-        <v>10.55</v>
+        <v>10.58</v>
       </c>
       <c r="D392" t="n">
-        <v>11255.85</v>
+        <v>11219.35</v>
       </c>
       <c r="E392" t="n">
-        <v>2.32</v>
+        <v>2.31</v>
       </c>
       <c r="F392" t="n">
         <v>15.74</v>
@@ -10263,10 +10263,10 @@
         <v>0</v>
       </c>
       <c r="C393" t="n">
-        <v>42.34</v>
+        <v>42.41</v>
       </c>
       <c r="D393" t="n">
-        <v>30119.59</v>
+        <v>30032.41</v>
       </c>
       <c r="E393" t="n">
         <v>1.79</v>
@@ -10313,10 +10313,10 @@
         <v>0</v>
       </c>
       <c r="C395" t="n">
-        <v>-12.63</v>
+        <v>-12.62</v>
       </c>
       <c r="D395" t="n">
-        <v>103763.25</v>
+        <v>103797.78</v>
       </c>
       <c r="E395" t="n">
         <v>0.97</v>
@@ -10335,16 +10335,16 @@
         </is>
       </c>
       <c r="B396" t="n">
-        <v>4.44</v>
+        <v>4.46</v>
       </c>
       <c r="C396" t="n">
-        <v>-35.2</v>
+        <v>-35.47</v>
       </c>
       <c r="D396" t="n">
-        <v>17172.54</v>
+        <v>17075.52</v>
       </c>
       <c r="E396" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="F396" t="n">
         <v>28.82</v>
@@ -10360,16 +10360,16 @@
         </is>
       </c>
       <c r="B397" t="n">
-        <v>2.17</v>
+        <v>2.18</v>
       </c>
       <c r="C397" t="n">
-        <v>-9.17</v>
+        <v>-9.210000000000001</v>
       </c>
       <c r="D397" t="n">
-        <v>8715.16</v>
+        <v>8678.09</v>
       </c>
       <c r="E397" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="F397" t="n">
         <v>11.36</v>
@@ -10388,13 +10388,13 @@
         <v>1.45</v>
       </c>
       <c r="C398" t="n">
-        <v>-25.64</v>
+        <v>-25.72</v>
       </c>
       <c r="D398" t="n">
-        <v>24501.14</v>
+        <v>24436.42</v>
       </c>
       <c r="E398" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="F398" t="n">
         <v>15.84</v>
@@ -10413,10 +10413,10 @@
         <v>1.7</v>
       </c>
       <c r="C399" t="n">
-        <v>10.15</v>
+        <v>10.14</v>
       </c>
       <c r="D399" t="n">
-        <v>11656.37</v>
+        <v>11663.61</v>
       </c>
       <c r="E399" t="n">
         <v>3.78</v>
@@ -10438,13 +10438,13 @@
         <v>0.96</v>
       </c>
       <c r="C400" t="n">
-        <v>4.77</v>
+        <v>4.8</v>
       </c>
       <c r="D400" t="n">
-        <v>26984.84</v>
+        <v>26839.98</v>
       </c>
       <c r="E400" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="F400" t="n">
         <v>18.6</v>
@@ -10466,7 +10466,7 @@
         <v>6.56</v>
       </c>
       <c r="D401" t="n">
-        <v>32232.97</v>
+        <v>32223.21</v>
       </c>
       <c r="E401" t="n">
         <v>4.44</v>
@@ -10491,7 +10491,7 @@
         <v>1.11</v>
       </c>
       <c r="D402" t="n">
-        <v>21423.95</v>
+        <v>21460.88</v>
       </c>
       <c r="E402" t="n">
         <v>0.95</v>
@@ -10513,13 +10513,13 @@
         <v>0.5</v>
       </c>
       <c r="C403" t="n">
-        <v>9.58</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="D403" t="n">
-        <v>57714.38</v>
+        <v>57930.7</v>
       </c>
       <c r="E403" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="F403" t="n">
         <v>11.8</v>
@@ -10535,13 +10535,13 @@
         </is>
       </c>
       <c r="B404" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="C404" t="n">
         <v>2.26</v>
       </c>
       <c r="D404" t="n">
-        <v>49925.4</v>
+        <v>49839.71</v>
       </c>
       <c r="E404" t="n">
         <v>0.9399999999999999</v>
@@ -10560,16 +10560,16 @@
         </is>
       </c>
       <c r="B405" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="C405" t="n">
-        <v>18.07</v>
+        <v>18</v>
       </c>
       <c r="D405" t="n">
-        <v>54128.97</v>
+        <v>54369.2</v>
       </c>
       <c r="E405" t="n">
-        <v>0.68</v>
+        <v>0.63</v>
       </c>
       <c r="F405" t="n">
         <v>15.04</v>
@@ -10588,10 +10588,10 @@
         <v>2.47</v>
       </c>
       <c r="C406" t="n">
-        <v>22.76</v>
+        <v>22.77</v>
       </c>
       <c r="D406" t="n">
-        <v>131186.93</v>
+        <v>131079.09</v>
       </c>
       <c r="E406" t="n">
         <v>1.37</v>
@@ -10613,13 +10613,13 @@
         <v>0.27</v>
       </c>
       <c r="C407" t="n">
-        <v>15.84</v>
+        <v>15.8</v>
       </c>
       <c r="D407" t="n">
-        <v>12905.94</v>
+        <v>12945.43</v>
       </c>
       <c r="E407" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="F407" t="n">
         <v>8.33</v>
@@ -10638,10 +10638,10 @@
         <v>1.32</v>
       </c>
       <c r="C408" t="n">
-        <v>39.26</v>
+        <v>39.22</v>
       </c>
       <c r="D408" t="n">
-        <v>23251.75</v>
+        <v>23289.55</v>
       </c>
       <c r="E408" t="n">
         <v>1.64</v>
@@ -10663,10 +10663,10 @@
         <v>2.23</v>
       </c>
       <c r="C409" t="n">
-        <v>15.91</v>
+        <v>15.92</v>
       </c>
       <c r="D409" t="n">
-        <v>109146.87</v>
+        <v>109084.02</v>
       </c>
       <c r="E409" t="n">
         <v>1.2</v>
@@ -10691,7 +10691,7 @@
         <v>11.84</v>
       </c>
       <c r="D410" t="n">
-        <v>117692.8</v>
+        <v>117647.24</v>
       </c>
       <c r="E410" t="n">
         <v>1.14</v>
@@ -10713,10 +10713,10 @@
         <v>0.78</v>
       </c>
       <c r="C411" t="n">
-        <v>12.64</v>
+        <v>12.67</v>
       </c>
       <c r="D411" t="n">
-        <v>79732.41</v>
+        <v>79513.28</v>
       </c>
       <c r="E411" t="n">
         <v>1.09</v>
@@ -10738,10 +10738,10 @@
         <v>3.18</v>
       </c>
       <c r="C412" t="n">
-        <v>19.55</v>
+        <v>19.52</v>
       </c>
       <c r="D412" t="n">
-        <v>13517.53</v>
+        <v>13542.07</v>
       </c>
       <c r="E412" t="n">
         <v>1.44</v>
@@ -10760,16 +10760,16 @@
         </is>
       </c>
       <c r="B413" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="C413" t="n">
-        <v>11.29</v>
+        <v>11.33</v>
       </c>
       <c r="D413" t="n">
-        <v>69021.67999999999</v>
+        <v>68729.06</v>
       </c>
       <c r="E413" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="F413" t="n">
         <v>-15.11</v>
@@ -10785,16 +10785,16 @@
         </is>
       </c>
       <c r="B414" t="n">
-        <v>2.51</v>
+        <v>2.5</v>
       </c>
       <c r="C414" t="n">
-        <v>3.49</v>
+        <v>3.48</v>
       </c>
       <c r="D414" t="n">
-        <v>14165.47</v>
+        <v>14195.68</v>
       </c>
       <c r="E414" t="n">
-        <v>2.36</v>
+        <v>2.37</v>
       </c>
       <c r="F414" t="n">
         <v>13.32</v>
@@ -10813,13 +10813,13 @@
         <v>0</v>
       </c>
       <c r="C415" t="n">
-        <v>-1.06</v>
+        <v>-1.05</v>
       </c>
       <c r="D415" t="n">
-        <v>86471.02</v>
+        <v>86507.50999999999</v>
       </c>
       <c r="E415" t="n">
-        <v>2.28</v>
+        <v>2.27</v>
       </c>
       <c r="F415" t="n">
         <v>5.68</v>
@@ -10835,16 +10835,16 @@
         </is>
       </c>
       <c r="B416" t="n">
-        <v>3.89</v>
+        <v>3.87</v>
       </c>
       <c r="C416" t="n">
-        <v>43.35</v>
+        <v>43.26</v>
       </c>
       <c r="D416" t="n">
-        <v>74775.96000000001</v>
+        <v>75061.7</v>
       </c>
       <c r="E416" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="F416" t="n">
         <v>9.15</v>
@@ -10863,10 +10863,10 @@
         <v>0</v>
       </c>
       <c r="C417" t="n">
-        <v>34.22</v>
+        <v>34.27</v>
       </c>
       <c r="D417" t="n">
-        <v>47738.52</v>
+        <v>47640.44</v>
       </c>
       <c r="E417" t="n">
         <v>1.48</v>
@@ -10888,13 +10888,13 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="C418" t="n">
-        <v>6.82</v>
+        <v>6.83</v>
       </c>
       <c r="D418" t="n">
-        <v>141483.16</v>
+        <v>141272.6</v>
       </c>
       <c r="E418" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="F418" t="n">
         <v>24.79</v>
@@ -10913,13 +10913,13 @@
         <v>3.32</v>
       </c>
       <c r="C419" t="n">
-        <v>39.54</v>
+        <v>39.55</v>
       </c>
       <c r="D419" t="n">
-        <v>44399.6</v>
+        <v>44387.04</v>
       </c>
       <c r="E419" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="F419" t="n">
         <v>10.67</v>
@@ -10941,7 +10941,7 @@
         <v>12.14</v>
       </c>
       <c r="D420" t="n">
-        <v>22183.63</v>
+        <v>22184.62</v>
       </c>
       <c r="E420" t="n">
         <v>1.27</v>
@@ -10963,13 +10963,13 @@
         <v>1.35</v>
       </c>
       <c r="C421" t="n">
-        <v>4.5</v>
+        <v>4.52</v>
       </c>
       <c r="D421" t="n">
-        <v>20117.03</v>
+        <v>20034.5</v>
       </c>
       <c r="E421" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="F421" t="n">
         <v>14.65</v>
@@ -10988,10 +10988,10 @@
         <v>4.37</v>
       </c>
       <c r="C422" t="n">
-        <v>142.1</v>
+        <v>142.09</v>
       </c>
       <c r="D422" t="n">
-        <v>22232.14</v>
+        <v>22226.1</v>
       </c>
       <c r="E422" t="n">
         <v>1.03</v>
@@ -11010,13 +11010,13 @@
         </is>
       </c>
       <c r="B423" t="n">
-        <v>3.13</v>
+        <v>3.15</v>
       </c>
       <c r="C423" t="n">
-        <v>21.38</v>
+        <v>21.46</v>
       </c>
       <c r="D423" t="n">
-        <v>18565.19</v>
+        <v>18478.39</v>
       </c>
       <c r="E423" t="n">
         <v>1.59</v>
@@ -11038,13 +11038,13 @@
         <v>1.3</v>
       </c>
       <c r="C424" t="n">
-        <v>22.05</v>
+        <v>22.08</v>
       </c>
       <c r="D424" t="n">
-        <v>45347.37</v>
+        <v>45262.98</v>
       </c>
       <c r="E424" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="F424" t="n">
         <v>11.4</v>
@@ -11060,16 +11060,16 @@
         </is>
       </c>
       <c r="B425" t="n">
-        <v>3.47</v>
+        <v>3.46</v>
       </c>
       <c r="C425" t="n">
-        <v>32.58</v>
+        <v>32.53</v>
       </c>
       <c r="D425" t="n">
-        <v>13919.12</v>
+        <v>13951.31</v>
       </c>
       <c r="E425" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="F425" t="n">
         <v>22.28</v>
@@ -11088,13 +11088,13 @@
         <v>2.39</v>
       </c>
       <c r="C426" t="n">
-        <v>4.34</v>
+        <v>4.36</v>
       </c>
       <c r="D426" t="n">
-        <v>16977.98</v>
+        <v>16926.14</v>
       </c>
       <c r="E426" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="F426" t="n">
         <v>13.29</v>
@@ -11113,13 +11113,13 @@
         <v>2.96</v>
       </c>
       <c r="C427" t="n">
-        <v>9.66</v>
+        <v>9.68</v>
       </c>
       <c r="D427" t="n">
-        <v>16107.14</v>
+        <v>16084.76</v>
       </c>
       <c r="E427" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="F427" t="n">
         <v>28.34</v>
@@ -11138,10 +11138,10 @@
         <v>0.88</v>
       </c>
       <c r="C428" t="n">
-        <v>5.74</v>
+        <v>5.73</v>
       </c>
       <c r="D428" t="n">
-        <v>129403.64</v>
+        <v>129585.98</v>
       </c>
       <c r="E428" t="n">
         <v>1.52</v>
@@ -11160,13 +11160,13 @@
         </is>
       </c>
       <c r="B429" t="n">
-        <v>2.47</v>
+        <v>2.46</v>
       </c>
       <c r="C429" t="n">
-        <v>20.53</v>
+        <v>20.49</v>
       </c>
       <c r="D429" t="n">
-        <v>40333.2</v>
+        <v>40429.17</v>
       </c>
       <c r="E429" t="n">
         <v>1.84</v>
@@ -11185,16 +11185,16 @@
         </is>
       </c>
       <c r="B430" t="n">
-        <v>6.69</v>
+        <v>6.68</v>
       </c>
       <c r="C430" t="n">
-        <v>54.91</v>
+        <v>54.89</v>
       </c>
       <c r="D430" t="n">
-        <v>121657.25</v>
+        <v>121764.5</v>
       </c>
       <c r="E430" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="F430" t="n">
         <v>10.23</v>
@@ -11210,16 +11210,16 @@
         </is>
       </c>
       <c r="B431" t="n">
-        <v>2.46</v>
+        <v>2.45</v>
       </c>
       <c r="C431" t="n">
-        <v>31.31</v>
+        <v>31.25</v>
       </c>
       <c r="D431" t="n">
-        <v>13396.54</v>
+        <v>13434.39</v>
       </c>
       <c r="E431" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="F431" t="n">
         <v>9.68</v>
@@ -11238,13 +11238,13 @@
         <v>0.06</v>
       </c>
       <c r="C432" t="n">
-        <v>21.28</v>
+        <v>21.22</v>
       </c>
       <c r="D432" t="n">
-        <v>61176.59</v>
+        <v>61382.33</v>
       </c>
       <c r="E432" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="F432" t="n">
         <v>24.96</v>
@@ -11263,13 +11263,13 @@
         <v>0</v>
       </c>
       <c r="C433" t="n">
-        <v>11.36</v>
+        <v>11.44</v>
       </c>
       <c r="D433" t="n">
-        <v>20259.97</v>
+        <v>20101.8</v>
       </c>
       <c r="E433" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="F433" t="n">
         <v>14.39</v>
@@ -11288,13 +11288,13 @@
         <v>0.46</v>
       </c>
       <c r="C434" t="n">
-        <v>2.23</v>
+        <v>2.22</v>
       </c>
       <c r="D434" t="n">
-        <v>10967.15</v>
+        <v>11027.05</v>
       </c>
       <c r="E434" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="F434" t="n">
         <v>13.81</v>
@@ -11313,13 +11313,13 @@
         <v>1.62</v>
       </c>
       <c r="C435" t="n">
-        <v>6.17</v>
+        <v>6.19</v>
       </c>
       <c r="D435" t="n">
-        <v>44813.17</v>
+        <v>44705.54</v>
       </c>
       <c r="E435" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="F435" t="n">
         <v>13.68</v>
@@ -11338,13 +11338,13 @@
         <v>0.43</v>
       </c>
       <c r="C436" t="n">
-        <v>-5.72</v>
+        <v>-5.74</v>
       </c>
       <c r="D436" t="n">
-        <v>15795.43</v>
+        <v>15732.75</v>
       </c>
       <c r="E436" t="n">
-        <v>2.54</v>
+        <v>2.53</v>
       </c>
       <c r="F436" t="n">
         <v>15.28</v>
@@ -11360,16 +11360,16 @@
         </is>
       </c>
       <c r="B437" t="n">
-        <v>6.18</v>
+        <v>6.22</v>
       </c>
       <c r="C437" t="n">
-        <v>38.83</v>
+        <v>39</v>
       </c>
       <c r="D437" t="n">
-        <v>48401.67</v>
+        <v>48054.76</v>
       </c>
       <c r="E437" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="F437" t="n">
         <v>35.92</v>
@@ -11388,10 +11388,10 @@
         <v>0.54</v>
       </c>
       <c r="C438" t="n">
-        <v>11.65</v>
+        <v>11.62</v>
       </c>
       <c r="D438" t="n">
-        <v>11828.85</v>
+        <v>11859.12</v>
       </c>
       <c r="E438" t="n">
         <v>1.4</v>
@@ -11410,16 +11410,16 @@
         </is>
       </c>
       <c r="B439" t="n">
-        <v>2.66</v>
+        <v>2.67</v>
       </c>
       <c r="C439" t="n">
-        <v>19.64</v>
+        <v>19.67</v>
       </c>
       <c r="D439" t="n">
-        <v>68918.53999999999</v>
+        <v>68771.23</v>
       </c>
       <c r="E439" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="F439" t="n">
         <v>31.18</v>
@@ -11441,7 +11441,7 @@
         <v>6.03</v>
       </c>
       <c r="D440" t="n">
-        <v>113209.81</v>
+        <v>113336.9</v>
       </c>
       <c r="E440" t="n">
         <v>0.9399999999999999</v>
@@ -11463,10 +11463,10 @@
         <v>0.25</v>
       </c>
       <c r="C441" t="n">
-        <v>11.26</v>
+        <v>11.28</v>
       </c>
       <c r="D441" t="n">
-        <v>211573.45</v>
+        <v>211183.21</v>
       </c>
       <c r="E441" t="n">
         <v>1.66</v>
@@ -11488,10 +11488,10 @@
         <v>0.39</v>
       </c>
       <c r="C442" t="n">
-        <v>35.83</v>
+        <v>35.82</v>
       </c>
       <c r="D442" t="n">
-        <v>193362.04</v>
+        <v>193433.79</v>
       </c>
       <c r="E442" t="n">
         <v>0.5600000000000001</v>
@@ -11510,16 +11510,16 @@
         </is>
       </c>
       <c r="B443" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="C443" t="n">
-        <v>20.58</v>
+        <v>20.53</v>
       </c>
       <c r="D443" t="n">
-        <v>9853.24</v>
+        <v>9880.530000000001</v>
       </c>
       <c r="E443" t="n">
-        <v>2.11</v>
+        <v>2.12</v>
       </c>
       <c r="F443" t="n">
         <v>30.25</v>
@@ -11535,16 +11535,16 @@
         </is>
       </c>
       <c r="B444" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="C444" t="n">
-        <v>36.31</v>
+        <v>36.22</v>
       </c>
       <c r="D444" t="n">
-        <v>19930.14</v>
+        <v>20007</v>
       </c>
       <c r="E444" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="F444" t="n">
         <v>-2.99</v>
@@ -11563,13 +11563,13 @@
         <v>0</v>
       </c>
       <c r="C445" t="n">
-        <v>9.279999999999999</v>
+        <v>9.33</v>
       </c>
       <c r="D445" t="n">
-        <v>13579.5</v>
+        <v>13502.96</v>
       </c>
       <c r="E445" t="n">
-        <v>1.96</v>
+        <v>1.89</v>
       </c>
       <c r="F445" t="n">
         <v>5.89</v>
@@ -11588,13 +11588,13 @@
         <v>4.49</v>
       </c>
       <c r="C446" t="n">
-        <v>-6.14</v>
+        <v>-6.13</v>
       </c>
       <c r="D446" t="n">
-        <v>24637.09</v>
+        <v>24671.86</v>
       </c>
       <c r="E446" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="F446" t="n">
         <v>15.73</v>
@@ -11613,10 +11613,10 @@
         <v>1.85</v>
       </c>
       <c r="C447" t="n">
-        <v>13.09</v>
+        <v>13.1</v>
       </c>
       <c r="D447" t="n">
-        <v>49021.93</v>
+        <v>48976.28</v>
       </c>
       <c r="E447" t="n">
         <v>1.61</v>
@@ -11635,16 +11635,16 @@
         </is>
       </c>
       <c r="B448" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="C448" t="n">
-        <v>15.32</v>
+        <v>15.37</v>
       </c>
       <c r="D448" t="n">
-        <v>25631.72</v>
+        <v>25537.66</v>
       </c>
       <c r="E448" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="F448" t="n">
         <v>12.82</v>
@@ -11666,7 +11666,7 @@
         <v>-3.37</v>
       </c>
       <c r="D449" t="n">
-        <v>599353.28</v>
+        <v>599194.0699999999</v>
       </c>
       <c r="E449" t="n">
         <v>3.28</v>
@@ -11685,13 +11685,13 @@
         </is>
       </c>
       <c r="B450" t="n">
-        <v>3.59</v>
+        <v>3.58</v>
       </c>
       <c r="C450" t="n">
-        <v>33.65</v>
+        <v>33.59</v>
       </c>
       <c r="D450" t="n">
-        <v>18657.96</v>
+        <v>18707.8</v>
       </c>
       <c r="E450" t="n">
         <v>1.71</v>
@@ -11700,7 +11700,7 @@
         <v>21.47</v>
       </c>
       <c r="G450" t="n">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="451">
@@ -11710,13 +11710,13 @@
         </is>
       </c>
       <c r="B451" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="C451" t="n">
         <v>5.62</v>
       </c>
       <c r="D451" t="n">
-        <v>61863.64</v>
+        <v>61888.68</v>
       </c>
       <c r="E451" t="n">
         <v>2.05</v>
@@ -11738,13 +11738,13 @@
         <v>0</v>
       </c>
       <c r="C452" t="n">
-        <v>8.390000000000001</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="D452" t="n">
-        <v>26992.75</v>
+        <v>26225.1</v>
       </c>
       <c r="E452" t="n">
-        <v>2.36</v>
+        <v>2.24</v>
       </c>
       <c r="F452" t="n">
         <v>13.72</v>
@@ -11763,10 +11763,10 @@
         <v>3.11</v>
       </c>
       <c r="C453" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="D453" t="n">
-        <v>146762.6</v>
+        <v>146421.72</v>
       </c>
       <c r="E453" t="n">
         <v>1.62</v>
@@ -11791,7 +11791,7 @@
         <v>7.57</v>
       </c>
       <c r="D454" t="n">
-        <v>17166.16</v>
+        <v>17148.52</v>
       </c>
       <c r="E454" t="n">
         <v>2.04</v>
@@ -11816,10 +11816,10 @@
         <v>4.4</v>
       </c>
       <c r="D455" t="n">
-        <v>18161.81</v>
+        <v>18168.7</v>
       </c>
       <c r="E455" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="F455" t="n">
         <v>16.96</v>
@@ -11838,13 +11838,13 @@
         <v>0</v>
       </c>
       <c r="C456" t="n">
-        <v>58.78</v>
+        <v>58.67</v>
       </c>
       <c r="D456" t="n">
-        <v>14044.05</v>
+        <v>14111.29</v>
       </c>
       <c r="E456" t="n">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
       <c r="F456" t="n">
         <v>12.44</v>
@@ -11863,13 +11863,13 @@
         <v>0</v>
       </c>
       <c r="C457" t="n">
-        <v>4.93</v>
+        <v>4.95</v>
       </c>
       <c r="D457" t="n">
-        <v>139411.36</v>
+        <v>138679.36</v>
       </c>
       <c r="E457" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="F457" t="n">
         <v>46.84</v>
@@ -11888,13 +11888,13 @@
         <v>4.13</v>
       </c>
       <c r="C458" t="n">
-        <v>32.62</v>
+        <v>32.66</v>
       </c>
       <c r="D458" t="n">
-        <v>11722.42</v>
+        <v>11700.64</v>
       </c>
       <c r="E458" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="F458" t="n">
         <v>13.03</v>
@@ -11913,13 +11913,13 @@
         <v>0.5</v>
       </c>
       <c r="C459" t="n">
-        <v>30.8</v>
+        <v>30.78</v>
       </c>
       <c r="D459" t="n">
-        <v>11613.94</v>
+        <v>11622.14</v>
       </c>
       <c r="E459" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="F459" t="n">
         <v>26.89</v>
@@ -11938,10 +11938,10 @@
         <v>0</v>
       </c>
       <c r="C460" t="n">
-        <v>4.21</v>
+        <v>4.22</v>
       </c>
       <c r="D460" t="n">
-        <v>26538.3</v>
+        <v>26444.12</v>
       </c>
       <c r="E460" t="n">
         <v>1.21</v>
@@ -11963,10 +11963,10 @@
         <v>1.41</v>
       </c>
       <c r="C461" t="n">
-        <v>6.44</v>
+        <v>6.43</v>
       </c>
       <c r="D461" t="n">
-        <v>478167.86</v>
+        <v>479028.03</v>
       </c>
       <c r="E461" t="n">
         <v>1.53</v>
@@ -11988,10 +11988,10 @@
         <v>2.1</v>
       </c>
       <c r="C462" t="n">
-        <v>17.85</v>
+        <v>17.84</v>
       </c>
       <c r="D462" t="n">
-        <v>150741.15</v>
+        <v>150814.29</v>
       </c>
       <c r="E462" t="n">
         <v>0.96</v>
@@ -12010,13 +12010,13 @@
         </is>
       </c>
       <c r="B463" t="n">
-        <v>4.29</v>
+        <v>4.28</v>
       </c>
       <c r="C463" t="n">
-        <v>14.15</v>
+        <v>14.12</v>
       </c>
       <c r="D463" t="n">
-        <v>125352.33</v>
+        <v>125590.87</v>
       </c>
       <c r="E463" t="n">
         <v>2.49</v>
@@ -12038,10 +12038,10 @@
         <v>0.91</v>
       </c>
       <c r="C464" t="n">
-        <v>21.69</v>
+        <v>21.67</v>
       </c>
       <c r="D464" t="n">
-        <v>44603.56</v>
+        <v>44656.24</v>
       </c>
       <c r="E464" t="n">
         <v>3.33</v>
@@ -12060,16 +12060,16 @@
         </is>
       </c>
       <c r="B465" t="n">
-        <v>4.79</v>
+        <v>4.8</v>
       </c>
       <c r="C465" t="n">
-        <v>7.98</v>
+        <v>8</v>
       </c>
       <c r="D465" t="n">
-        <v>64181.81</v>
+        <v>64002.64</v>
       </c>
       <c r="E465" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="F465" t="n">
         <v>34.84</v>
@@ -12091,7 +12091,7 @@
         <v>-0.8100000000000001</v>
       </c>
       <c r="D466" t="n">
-        <v>508234.62</v>
+        <v>508696.87</v>
       </c>
       <c r="E466" t="n">
         <v>0.96</v>
@@ -12110,16 +12110,16 @@
         </is>
       </c>
       <c r="B467" t="n">
-        <v>10.41</v>
+        <v>10.37</v>
       </c>
       <c r="C467" t="n">
-        <v>52.08</v>
+        <v>51.99</v>
       </c>
       <c r="D467" t="n">
-        <v>6749.18</v>
+        <v>6774.44</v>
       </c>
       <c r="E467" t="n">
-        <v>4.43</v>
+        <v>4.49</v>
       </c>
       <c r="F467" t="n">
         <v>-7.27</v>
@@ -12138,13 +12138,13 @@
         <v>4.26</v>
       </c>
       <c r="C468" t="n">
-        <v>32.11</v>
+        <v>32.12</v>
       </c>
       <c r="D468" t="n">
-        <v>28647.31</v>
+        <v>28623.23</v>
       </c>
       <c r="E468" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="F468" t="n">
         <v>14</v>
@@ -12163,10 +12163,10 @@
         <v>3.22</v>
       </c>
       <c r="C469" t="n">
-        <v>22.55</v>
+        <v>22.54</v>
       </c>
       <c r="D469" t="n">
-        <v>48487.17</v>
+        <v>48517.81</v>
       </c>
       <c r="E469" t="n">
         <v>1.65</v>
@@ -12188,7 +12188,7 @@
       <c r="C470" t="inlineStr"/>
       <c r="D470" t="inlineStr"/>
       <c r="E470" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="F470" t="n">
         <v>5.37</v>
@@ -12204,13 +12204,13 @@
         </is>
       </c>
       <c r="B471" t="n">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="C471" t="n">
-        <v>12.25</v>
+        <v>12.27</v>
       </c>
       <c r="D471" t="n">
-        <v>32012.95</v>
+        <v>31933.21</v>
       </c>
       <c r="E471" t="n">
         <v>1.5</v>
@@ -12235,10 +12235,10 @@
         <v>9.130000000000001</v>
       </c>
       <c r="D472" t="n">
-        <v>38252.18</v>
+        <v>38231.29</v>
       </c>
       <c r="E472" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="F472" t="n">
         <v>2.56</v>
@@ -12257,13 +12257,13 @@
         <v>0</v>
       </c>
       <c r="C473" t="n">
-        <v>3.77</v>
+        <v>3.78</v>
       </c>
       <c r="D473" t="n">
-        <v>20665.92</v>
+        <v>20621.95</v>
       </c>
       <c r="E473" t="n">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="F473" t="n">
         <v>-1.09</v>
@@ -12282,19 +12282,19 @@
         <v>0</v>
       </c>
       <c r="C474" t="n">
-        <v>-10.18</v>
+        <v>-10.11</v>
       </c>
       <c r="D474" t="n">
-        <v>106937.39</v>
+        <v>107567.08</v>
       </c>
       <c r="E474" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="F474" t="n">
         <v>17.88</v>
       </c>
       <c r="G474" t="n">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="475">
@@ -12304,13 +12304,13 @@
         </is>
       </c>
       <c r="B475" t="n">
-        <v>3.97</v>
+        <v>3.98</v>
       </c>
       <c r="C475" t="n">
-        <v>40.51</v>
+        <v>40.58</v>
       </c>
       <c r="D475" t="n">
-        <v>18158.23</v>
+        <v>18102.28</v>
       </c>
       <c r="E475" t="n">
         <v>1.42</v>
@@ -12329,16 +12329,16 @@
         </is>
       </c>
       <c r="B476" t="n">
-        <v>3.99</v>
+        <v>4.01</v>
       </c>
       <c r="C476" t="n">
-        <v>55.57</v>
+        <v>55.7</v>
       </c>
       <c r="D476" t="n">
-        <v>14583.73</v>
+        <v>14504.83</v>
       </c>
       <c r="E476" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="F476" t="n">
         <v>30.94</v>
@@ -12354,13 +12354,13 @@
         </is>
       </c>
       <c r="B477" t="n">
-        <v>6.55</v>
+        <v>6.54</v>
       </c>
       <c r="C477" t="n">
-        <v>50.65</v>
+        <v>50.63</v>
       </c>
       <c r="D477" t="n">
-        <v>168412.25</v>
+        <v>168603.94</v>
       </c>
       <c r="E477" t="n">
         <v>1.96</v>
@@ -12382,10 +12382,10 @@
         <v>0.45</v>
       </c>
       <c r="C478" t="n">
-        <v>13.25</v>
+        <v>13.26</v>
       </c>
       <c r="D478" t="n">
-        <v>24851.58</v>
+        <v>24829.84</v>
       </c>
       <c r="E478" t="n">
         <v>0.75</v>
@@ -12407,13 +12407,13 @@
         <v>0</v>
       </c>
       <c r="C479" t="n">
-        <v>5.87</v>
+        <v>5.88</v>
       </c>
       <c r="D479" t="n">
-        <v>18962.63</v>
+        <v>18925.69</v>
       </c>
       <c r="E479" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="F479" t="n">
         <v>20.46</v>
@@ -12429,16 +12429,16 @@
         </is>
       </c>
       <c r="B480" t="n">
-        <v>8.5</v>
+        <v>8.48</v>
       </c>
       <c r="C480" t="n">
-        <v>63.36</v>
+        <v>63.31</v>
       </c>
       <c r="D480" t="n">
-        <v>19527.88</v>
+        <v>19566.79</v>
       </c>
       <c r="E480" t="n">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="F480" t="n">
         <v>5.97</v>
@@ -12482,10 +12482,10 @@
         <v>0</v>
       </c>
       <c r="C482" t="n">
-        <v>22.37</v>
+        <v>22.41</v>
       </c>
       <c r="D482" t="n">
-        <v>18495.68</v>
+        <v>18457.04</v>
       </c>
       <c r="E482" t="n">
         <v>2.17</v>
@@ -12504,16 +12504,16 @@
         </is>
       </c>
       <c r="B483" t="n">
-        <v>4</v>
+        <v>3.98</v>
       </c>
       <c r="C483" t="n">
-        <v>43.25</v>
+        <v>43.14</v>
       </c>
       <c r="D483" t="n">
-        <v>24607.05</v>
+        <v>24720.61</v>
       </c>
       <c r="E483" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="F483" t="n">
         <v>2.81</v>
@@ -12532,10 +12532,10 @@
         <v>2.63</v>
       </c>
       <c r="C484" t="n">
-        <v>24.97</v>
+        <v>25.01</v>
       </c>
       <c r="D484" t="n">
-        <v>43056.87</v>
+        <v>42968.58</v>
       </c>
       <c r="E484" t="n">
         <v>0.89</v>
@@ -12554,16 +12554,16 @@
         </is>
       </c>
       <c r="B485" t="n">
-        <v>2.99</v>
+        <v>3.01</v>
       </c>
       <c r="C485" t="n">
-        <v>-13.13</v>
+        <v>-13.19</v>
       </c>
       <c r="D485" t="n">
-        <v>176830.11</v>
+        <v>176128.33</v>
       </c>
       <c r="E485" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="F485" t="n">
         <v>20.06</v>
@@ -12579,16 +12579,16 @@
         </is>
       </c>
       <c r="B486" t="n">
-        <v>6.23</v>
+        <v>6.22</v>
       </c>
       <c r="C486" t="n">
-        <v>50.43</v>
+        <v>50.42</v>
       </c>
       <c r="D486" t="n">
-        <v>6165.5</v>
+        <v>6168.8</v>
       </c>
       <c r="E486" t="n">
-        <v>2.18</v>
+        <v>2.19</v>
       </c>
       <c r="F486" t="n">
         <v>-10.53</v>
@@ -12604,16 +12604,16 @@
         </is>
       </c>
       <c r="B487" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="C487" t="n">
-        <v>16.51</v>
+        <v>16.48</v>
       </c>
       <c r="D487" t="n">
-        <v>76643.87</v>
+        <v>76800.91</v>
       </c>
       <c r="E487" t="n">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="F487" t="n">
         <v>16.31</v>
@@ -12629,16 +12629,16 @@
         </is>
       </c>
       <c r="B488" t="n">
-        <v>4.93</v>
+        <v>4.92</v>
       </c>
       <c r="C488" t="n">
-        <v>34.96</v>
+        <v>34.91</v>
       </c>
       <c r="D488" t="n">
-        <v>41990.55</v>
+        <v>42094.08</v>
       </c>
       <c r="E488" t="n">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="F488" t="n">
         <v>0.23</v>
@@ -12654,16 +12654,16 @@
         </is>
       </c>
       <c r="B489" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="C489" t="n">
-        <v>9.91</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="D489" t="n">
-        <v>457217.54</v>
+        <v>458725.61</v>
       </c>
       <c r="E489" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="F489" t="n">
         <v>0.19</v>
@@ -12679,16 +12679,16 @@
         </is>
       </c>
       <c r="B490" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="C490" t="n">
-        <v>7.13</v>
+        <v>7.14</v>
       </c>
       <c r="D490" t="n">
-        <v>20749.36</v>
+        <v>20707.03</v>
       </c>
       <c r="E490" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="F490" t="n">
         <v>15.77</v>
@@ -12710,7 +12710,7 @@
         <v>45.01</v>
       </c>
       <c r="D491" t="n">
-        <v>10941.87</v>
+        <v>10940.59</v>
       </c>
       <c r="E491" t="n">
         <v>2.43</v>
@@ -12735,7 +12735,7 @@
         <v>-1.95</v>
       </c>
       <c r="D492" t="n">
-        <v>30137.21</v>
+        <v>30148.32</v>
       </c>
       <c r="E492" t="n">
         <v>1.63</v>
@@ -12760,7 +12760,7 @@
         <v>12.69</v>
       </c>
       <c r="D493" t="n">
-        <v>29043.64</v>
+        <v>29054.31</v>
       </c>
       <c r="E493" t="n">
         <v>1.74</v>
@@ -12785,7 +12785,7 @@
         <v>13.76</v>
       </c>
       <c r="D494" t="n">
-        <v>24472.27</v>
+        <v>24468.62</v>
       </c>
       <c r="E494" t="n">
         <v>1.15</v>
@@ -12807,10 +12807,10 @@
         <v>0.01</v>
       </c>
       <c r="C495" t="n">
-        <v>45.84</v>
+        <v>45.76</v>
       </c>
       <c r="D495" t="n">
-        <v>11944.6</v>
+        <v>11985.42</v>
       </c>
       <c r="E495" t="n">
         <v>2.19</v>
@@ -12829,16 +12829,16 @@
         </is>
       </c>
       <c r="B496" t="n">
-        <v>3.13</v>
+        <v>3.12</v>
       </c>
       <c r="C496" t="n">
-        <v>44.46</v>
+        <v>44.44</v>
       </c>
       <c r="D496" t="n">
-        <v>32378.39</v>
+        <v>32408.62</v>
       </c>
       <c r="E496" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="F496" t="n">
         <v>5.62</v>
@@ -12860,7 +12860,7 @@
         <v>3.91</v>
       </c>
       <c r="D497" t="n">
-        <v>421058.31</v>
+        <v>421180.76</v>
       </c>
       <c r="E497" t="n">
         <v>1.33</v>
@@ -12882,13 +12882,13 @@
         <v>1.44</v>
       </c>
       <c r="C498" t="n">
-        <v>19.78</v>
+        <v>19.8</v>
       </c>
       <c r="D498" t="n">
-        <v>7226.54</v>
+        <v>7216.86</v>
       </c>
       <c r="E498" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="F498" t="n">
         <v>13.05</v>
@@ -12904,13 +12904,13 @@
         </is>
       </c>
       <c r="B499" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="C499" t="n">
         <v>5.34</v>
       </c>
       <c r="D499" t="n">
-        <v>22229.47</v>
+        <v>22231.27</v>
       </c>
       <c r="E499" t="n">
         <v>1.67</v>
@@ -12929,13 +12929,13 @@
         </is>
       </c>
       <c r="B500" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="C500" t="n">
-        <v>25.08</v>
+        <v>25.06</v>
       </c>
       <c r="D500" t="n">
-        <v>36722</v>
+        <v>36772.4</v>
       </c>
       <c r="E500" t="n">
         <v>1.07</v>
@@ -12954,16 +12954,16 @@
         </is>
       </c>
       <c r="B501" t="n">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="C501" t="n">
-        <v>17.47</v>
+        <v>17.4</v>
       </c>
       <c r="D501" t="n">
-        <v>26179.34</v>
+        <v>26311.01</v>
       </c>
       <c r="E501" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="F501" t="n">
         <v>17.03</v>
@@ -12982,13 +12982,13 @@
         <v>0</v>
       </c>
       <c r="C502" t="n">
-        <v>13.58</v>
+        <v>13.56</v>
       </c>
       <c r="D502" t="n">
-        <v>13322.34</v>
+        <v>13346.52</v>
       </c>
       <c r="E502" t="n">
-        <v>2.12</v>
+        <v>2.13</v>
       </c>
       <c r="F502" t="n">
         <v>21.23</v>
@@ -13004,16 +13004,16 @@
         </is>
       </c>
       <c r="B503" t="n">
-        <v>4.37</v>
+        <v>4.4</v>
       </c>
       <c r="C503" t="n">
-        <v>22.88</v>
+        <v>23</v>
       </c>
       <c r="D503" t="n">
-        <v>6151.31</v>
+        <v>6109.83</v>
       </c>
       <c r="E503" t="n">
-        <v>2.74</v>
+        <v>2.69</v>
       </c>
       <c r="F503" t="n">
         <v>40.13</v>
@@ -13035,7 +13035,7 @@
         <v>4.75</v>
       </c>
       <c r="D504" t="n">
-        <v>91351.64</v>
+        <v>91314.53</v>
       </c>
       <c r="E504" t="n">
         <v>1.44</v>
